--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wawrzyn\Desktop\JA\Studyjne\Drugi rok MS\SSI\cwiczeniaZML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wawrzyn\Desktop\JA\Studyjne\Drugi rok MS\SSI\W2S-WebClasifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="496">
   <si>
     <t>link</t>
   </si>
@@ -957,13 +957,618 @@
   </si>
   <si>
     <t>https://www.sexvid.xxx/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eucalyptus</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Crete</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ruby-crowned_kinglet</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Monarch_butterfly</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Invasive_species</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guitar</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Flamenco</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dance</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technological_singularity</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Molecular_nanotechnology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Physics</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Astronomy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Medicine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Therapy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Disease</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Health</t>
+  </si>
+  <si>
+    <t>https://www.mofosex.com/</t>
+  </si>
+  <si>
+    <t>http://xbabe.com/</t>
+  </si>
+  <si>
+    <t>https://updatetube.com/</t>
+  </si>
+  <si>
+    <t>https://befuck.com/</t>
+  </si>
+  <si>
+    <t>https://masseurporn.com/</t>
+  </si>
+  <si>
+    <t>https://www.hdmovz.com/</t>
+  </si>
+  <si>
+    <t>https://www.pornrox.com/</t>
+  </si>
+  <si>
+    <t>http://pornmaki.com/</t>
+  </si>
+  <si>
+    <t>https://www.pornid.xxx/</t>
+  </si>
+  <si>
+    <t>https://www.inxporn.com/</t>
+  </si>
+  <si>
+    <t>http://www.slutload.com/</t>
+  </si>
+  <si>
+    <t>https://www.proporn.com/</t>
+  </si>
+  <si>
+    <t>https://www.fakeporn.tv/</t>
+  </si>
+  <si>
+    <t>http://www.pornhost.com/</t>
+  </si>
+  <si>
+    <t>https://handjobhub.com/</t>
+  </si>
+  <si>
+    <t>https://www.vpornvideos.com/</t>
+  </si>
+  <si>
+    <t>http://boundhub.com/</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/medicine/drugs/pharmacology/atropine</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/education/psychology-degrees-and-programs/forensic-psychology</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/medicine/diseases-and-conditions/pathology/autism</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/places/britain-ireland-france-and-low-countries/french-and-benelux-physical-geography/pyrenees</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/science-and-technology/biology-and-genetics/environmental-studies/environmentalism</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/medicine/divisions-diagnostics-and-procedures/medicine/socialized-medicine</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/social-sciences-and-law/political-science-and-government/united-nations/united-nations</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/social-sciences-and-law/economics-business-and-labor/money-banking-and-investment/federal-reserve</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/list/5-fast-facts-about-flower-anatomy</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/story/what-did-shakespeare-sound-like</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/list/9-dickensian-diagnoses</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/story/are-dogs-really-color-blind</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/story/investigating-therapeutic-uses-for-hallucinogens</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/animal/viper-snake</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/list/10-women-who-advanced-our-understanding-of-life-on-earth</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/lifeandstyle/2018/may/14/anna-jones-recipe-cooking-lettuce</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/lifeandstyle/2018/may/07/anna-jones-toast-topping-brunch-recipes</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/lifeandstyle/2018/apr/23/anna-jones-quick-pasta-recipes-lasagne-supermarket-filled-pasta</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/lifeandstyle/2018/apr/16/anna-jones-broad-bean-recipes</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/greek-seasoning-blend.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/parades-community-table-25-kid-friendly-snack-recipes.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/three-ingredient-grape-jam.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/parades-community-table-30-delicious-desserts-to-temp-your-sweet-tooth.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/soft-boiled-eggs-with-bacon-wrapped-asparagus-soldiers.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/crispy-chicken-florentine-with-mozzarella.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/03/cream-cheese-banana-nut-muffins.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2017/11/glazed-eggnog-bread.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/01/lemon-crumb-muffins-with-lemon-glaze.html</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/healthy/a19866004/tahini-lemon-quinoa-with-asparagus-ribbons-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/easy/a19855090/ginger-pork-and-cucumber-salad-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/easy/a19855475/pea-pesto-pappardelle-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/easy/a19855342/grilled-steak-tortilla-salad-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/easy/a19854680/roasted-cumin-shrimp-and-asparagus-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/technology/2009/dec/09/best-websites-internet</t>
+  </si>
+  <si>
+    <t>http://webtoptenz.com/top-10-tech-news-websites/</t>
+  </si>
+  <si>
+    <t>https://technologyschools.org/information-technology/</t>
+  </si>
+  <si>
+    <t>https://blog.storagecraft.com/best-it-sites-youre-not-reading/</t>
+  </si>
+  <si>
+    <t>https://slashdot.org/</t>
+  </si>
+  <si>
+    <t>https://www.experts-exchange.com/</t>
+  </si>
+  <si>
+    <t>http://www.laweekly.com/news/scenes-from-my-life-in-porn-2131819</t>
+  </si>
+  <si>
+    <t>http://edition.cnn.com/interactive/2014/04/opinion/sutter-change-the-list-pangolin-trafficking/index.html</t>
+  </si>
+  <si>
+    <t>https://lifehacker.com/5305094/how-to-crack-a-wi-fi-networks-wep-password-with-backtrack</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2016/04/24/magazine/icelands-water-cure.html</t>
+  </si>
+  <si>
+    <t>https://www.themarshallproject.org/2018/01/18/the-volunteer</t>
+  </si>
+  <si>
+    <t>https://www.rollingstone.com/politics/features/trump-education-secretary-betsy-devos-a-win-for-the-christian-right-w470605</t>
+  </si>
+  <si>
+    <t>http://www.janetreitman.com/articles/inside-scientology/</t>
+  </si>
+  <si>
+    <t>https://www.hakaimagazine.com/features/secret-history-bioluminescence/</t>
+  </si>
+  <si>
+    <t>https://michaelpollan.com/articles-archive/opium-made-easy/</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/forums/viewtopic.php?t=187871/</t>
+  </si>
+  <si>
+    <t>https://blog.openai.com/openai-charter/</t>
+  </si>
+  <si>
+    <t>https://www.shotcutapp.com/features/</t>
+  </si>
+  <si>
+    <t>https://medium.com/tech-tajawal/modern-backend-developer-in-2018-6b3f7b5f8b9</t>
+  </si>
+  <si>
+    <t>https://www.itweb.co.za/content/PmxVE7KX1NyMQY85</t>
+  </si>
+  <si>
+    <t>http://crashworks.org/if_programming_languages_were_vehicles/</t>
+  </si>
+  <si>
+    <t>https://lifehacker.com/what-i-wish-i-knew-when-i-started-my-career-as-a-softwa-1681002791</t>
+  </si>
+  <si>
+    <t>https://github.com/ErisBlastar/cplusequality</t>
+  </si>
+  <si>
+    <t>https://getpostcookie.com/blog/if-php-were-british/?utm_content=buffer8358d&amp;utm_medium=social&amp;utm_source=facebook.com&amp;utm_campaign=buffer</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/834179/wtf-is-wtf-in-webkit-code-base</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/1642028/what-is-the-operator-in-c?rq=1</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Diehard_tests</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Interrupt_storm</t>
+  </si>
+  <si>
+    <t>https://unix.stackexchange.com/questions/405783/why-does-man-print-gimme-gimme-gimme-at-0030</t>
+  </si>
+  <si>
+    <t>https://blog.codinghorror.com/</t>
+  </si>
+  <si>
+    <t>http://blog.hvidtfeldts.net/index.php/generative-art-links/</t>
+  </si>
+  <si>
+    <t>http://carlcheo.com/compsci</t>
+  </si>
+  <si>
+    <t>https://www.pornication.com/?AFNO=1-264593-2</t>
+  </si>
+  <si>
+    <t>https://www.privatefeeds.com/?AFNO=1-264593-2</t>
+  </si>
+  <si>
+    <t>https://www.sexlikereal.com/</t>
+  </si>
+  <si>
+    <t>https://www.vrsmash.com/</t>
+  </si>
+  <si>
+    <t>https://www.stasyq.com/virtualreality</t>
+  </si>
+  <si>
+    <t>https://watchmygf.cc/</t>
+  </si>
+  <si>
+    <t>https://www.iknowthatgirl.com/landing/tour5/?ats=eyJhIjoxMDc0NCwiYyI6NDQ3NDc0ODgsIm4iOjE1LCJzIjoxODEsImUiOjU5MiwicCI6NTd9</t>
+  </si>
+  <si>
+    <t>http://www.babe-lounge.com/</t>
+  </si>
+  <si>
+    <t>http://www.ebaumsworld.com/sexy/</t>
+  </si>
+  <si>
+    <t>https://www.simply-hentai.com/</t>
+  </si>
+  <si>
+    <t>http://hentaipulse.com/</t>
+  </si>
+  <si>
+    <t>http://hentaischool.com/</t>
+  </si>
+  <si>
+    <t>https://chan.sankakucomplex.com/</t>
+  </si>
+  <si>
+    <t>https://animeidhentai.com/</t>
+  </si>
+  <si>
+    <t>https://www.evilangellive.com/?AFNO=1-264593-2</t>
+  </si>
+  <si>
+    <t>http://www.tate.org.uk/context-comment/articles/work-life-studio-patternity</t>
+  </si>
+  <si>
+    <t>http://www.tate.org.uk/whats-on/tate-modern/exhibition/ey-exhibition-sonia-delaunay/delaunay-introduction</t>
+  </si>
+  <si>
+    <t>https://greatergood.berkeley.edu/article/item/why_we_make_art</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/topic/experiencing-art-1368300</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/05/18/t-magazine/fashion/castelbajac-edelman-bolle-editors-picks.html?rref=collection%2Ftimestopic%2FArt</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/05/18/arts/design/wong-ping-guggenheim-one-hand-clapping.html?rref=collection%2Ftimestopic%2FArt</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/05/18/books/review/linda-nochlin-misere.html?rref=collection%2Ftimestopic%2FArt</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/article/is-art-created-by-ai-really-art/</t>
+  </si>
+  <si>
+    <t>https://www.contempaesthetics.org/newvolume/pages/article.php?articleID=299</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/2018/5/17/17361124/state-of-decay-2-review-xbox-one-pc</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/2018/4/25/17276776/apocalipsis-review-windows-pc-mac</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/virtual-reality/2018/5/1/17284454/oculus-go-review</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/2018/4/12/17226486/god-of-war-review-ps4-2018</t>
+  </si>
+  <si>
+    <t>https://thepointsguy.com/guide/chase-sapphire-reserve-review/</t>
+  </si>
+  <si>
+    <t>https://aux.avclub.com/stephen-king-s-the-outsider-is-an-it-for-the-trump-era-1825906254</t>
+  </si>
+  <si>
+    <t>https://lifehacker.com/seven-ready-made-raspberry-pi-projects-you-can-install-1691368805</t>
+  </si>
+  <si>
+    <t>https://earther.com/lawns-are-an-ecological-disaster-1826070720</t>
+  </si>
+  <si>
+    <t>https://skillet.lifehacker.com/you-should-salt-your-summer-beverages-1826136071</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/what-booze-tastes-best-in-a-wendys-frosty-1826177345</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/imagine-being-the-snowflake-offended-by-gingerbread-pe-1826193740</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/every-refrigerator-needs-a-jar-of-pickled-okra-in-it-1825959283</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/last-call-new-way-to-waste-time-the-procrastibake-1826149556</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/what-exactly-is-air-chilled-chicken-1826144272</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/good-news-salad-fans-romaine-is-back-1826139944</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/mario-batali-under-criminal-investigation-by-nypd-1826190720</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/border-patrol-agent-questions-two-women-for-speaking-sp-1826184163</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/were-only-one-third-of-the-way-through-trumps-first-ter-1826190430</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/congressman-says-rocks-falling-into-the-sea-contribute-1826125767</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/no-seriously-fuck-the-democrats-who-voted-to-confirm-g-1826119984</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/house-democrats-line-up-to-vote-en-masse-for-totally-un-1826115862</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/gop-congressman-is-very-mad-that-people-are-talking-abo-1826036582</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/republican-candidate-gleefully-films-herself-harassing-1826134489</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/progressives-had-a-great-night-on-tuesday-1826064867</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/we-asked-all-of-the-2020-democratic-frontrunners-about-1826051757</t>
+  </si>
+  <si>
+    <t>https://jalopnik.com/this-crash-between-a-2015-and-a-1998-toyota-corolla-sho-1795220332</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/lizard-climate-change-evolution</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/work-out-sick</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/bird-migration-night-track</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/earth-magnetic-pole-flip</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/uranus-hydrogen-sulfide-cloud</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/surgeons-hole-cow-skull</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/diamonds-meteorites-long-lost-planet</t>
+  </si>
+  <si>
+    <t>https://blogs.scientificamerican.com/extinction-countdown/8-years-until-red-wolf-extinction/</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/article/quantum-physics-may-be-even-spookier-than-you-think/</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/article/so-umm-google-duplexs-chatter-is-not-quite-human/</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180518102729.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180517142553.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180517113802.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180518105916.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180518081910.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180516162516.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180517143621.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180517102236.htm</t>
+  </si>
+  <si>
+    <t>https://www.livescience.com/62618-coldest-spot-in-the-universe.html</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/animals/a20762108/green-blooded-lizards-live-with-a-pigment-that-should-kill-them/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/animals/a20759120/science-says-your-bed-is-dirtier-than-a-chimpanzees/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/archaeology/a20762222/why-was-this-babys-hand-mummified-but-not-the-rest-of-its-body/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/animals/a20758773/scientists-just-transferred-memories-from-one-creature-to-another/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20735500/nasa-administrator-jim-bridenstine-i-believe-fully-in-climate-change/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20735718/selfies-hawaii-volcano-eruption-2018/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/energy/a20732996/bitcoin-electricity-usage-doubled/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/energy/a20730787/pressure-proton-neutron-star/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20722931/cfc-spikes-secret-manufacture/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20705896/arctic-sea-ice-holds-clues-to-the-strength-of-the-roman-empire/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20666474/hawaii-volcano-kilauea-history-facts/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/a20066496/household-items-stop-bullet/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/health/a20650096/doctors-grow-replacement-ear-inside-patients-arm/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/animals/a20667736/jumping-spider</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.popularmechanics.com/science/animals/a20674994/these-mating-male-beetles-are-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-gay-just-incompetent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://www.popularmechanics.com/science/animals/a20674816/this-secretive-harvard-startup-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-trying-to-reverse-aging/</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,6 +1581,23 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1003,10 +1625,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1288,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,6 +4362,1494 @@
       </c>
       <c r="B304" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>311</v>
+      </c>
+      <c r="B305" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>312</v>
+      </c>
+      <c r="B306" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>313</v>
+      </c>
+      <c r="B307" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>314</v>
+      </c>
+      <c r="B308" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>315</v>
+      </c>
+      <c r="B309" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>316</v>
+      </c>
+      <c r="B310" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>317</v>
+      </c>
+      <c r="B311" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>318</v>
+      </c>
+      <c r="B312" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>319</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>320</v>
+      </c>
+      <c r="B314" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>321</v>
+      </c>
+      <c r="B315" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>322</v>
+      </c>
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>323</v>
+      </c>
+      <c r="B317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>324</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>325</v>
+      </c>
+      <c r="B319" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>326</v>
+      </c>
+      <c r="B320" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>327</v>
+      </c>
+      <c r="B321" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>328</v>
+      </c>
+      <c r="B322" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>329</v>
+      </c>
+      <c r="B323" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>330</v>
+      </c>
+      <c r="B324" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>331</v>
+      </c>
+      <c r="B325" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>332</v>
+      </c>
+      <c r="B326" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>333</v>
+      </c>
+      <c r="B327" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>334</v>
+      </c>
+      <c r="B328" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>335</v>
+      </c>
+      <c r="B329" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>336</v>
+      </c>
+      <c r="B330" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>337</v>
+      </c>
+      <c r="B331" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>338</v>
+      </c>
+      <c r="B332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>339</v>
+      </c>
+      <c r="B333" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>340</v>
+      </c>
+      <c r="B334" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>341</v>
+      </c>
+      <c r="B335" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>342</v>
+      </c>
+      <c r="B336" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>343</v>
+      </c>
+      <c r="B337" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>344</v>
+      </c>
+      <c r="B338" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>345</v>
+      </c>
+      <c r="B339" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>347</v>
+      </c>
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>348</v>
+      </c>
+      <c r="B341" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>346</v>
+      </c>
+      <c r="B342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>349</v>
+      </c>
+      <c r="B343" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>350</v>
+      </c>
+      <c r="B344" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>351</v>
+      </c>
+      <c r="B345" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>388</v>
+      </c>
+      <c r="B346" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>389</v>
+      </c>
+      <c r="B347" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>390</v>
+      </c>
+      <c r="B348" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>352</v>
+      </c>
+      <c r="B349" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>353</v>
+      </c>
+      <c r="B350" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>354</v>
+      </c>
+      <c r="B351" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>355</v>
+      </c>
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>356</v>
+      </c>
+      <c r="B353" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>357</v>
+      </c>
+      <c r="B354" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>358</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>359</v>
+      </c>
+      <c r="B356" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>360</v>
+      </c>
+      <c r="B357" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>361</v>
+      </c>
+      <c r="B358" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>362</v>
+      </c>
+      <c r="B359" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>363</v>
+      </c>
+      <c r="B360" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>364</v>
+      </c>
+      <c r="B361" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>365</v>
+      </c>
+      <c r="B362" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>366</v>
+      </c>
+      <c r="B363" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>367</v>
+      </c>
+      <c r="B364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>368</v>
+      </c>
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>369</v>
+      </c>
+      <c r="B366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>371</v>
+      </c>
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>373</v>
+      </c>
+      <c r="B369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>374</v>
+      </c>
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>375</v>
+      </c>
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>376</v>
+      </c>
+      <c r="B373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>377</v>
+      </c>
+      <c r="B374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>378</v>
+      </c>
+      <c r="B375" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>381</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>382</v>
+      </c>
+      <c r="B379" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>383</v>
+      </c>
+      <c r="B380" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>89</v>
+      </c>
+      <c r="B383" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>392</v>
+      </c>
+      <c r="B384" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>393</v>
+      </c>
+      <c r="B385" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>391</v>
+      </c>
+      <c r="B388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>394</v>
+      </c>
+      <c r="B389" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>395</v>
+      </c>
+      <c r="B390" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>396</v>
+      </c>
+      <c r="B391" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>397</v>
+      </c>
+      <c r="B392" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>398</v>
+      </c>
+      <c r="B393" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>399</v>
+      </c>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>400</v>
+      </c>
+      <c r="B395" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>401</v>
+      </c>
+      <c r="B396" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>402</v>
+      </c>
+      <c r="B397" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>403</v>
+      </c>
+      <c r="B398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>404</v>
+      </c>
+      <c r="B399" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>405</v>
+      </c>
+      <c r="B400" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>406</v>
+      </c>
+      <c r="B401" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>407</v>
+      </c>
+      <c r="B402" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>408</v>
+      </c>
+      <c r="B403" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>409</v>
+      </c>
+      <c r="B404" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>410</v>
+      </c>
+      <c r="B405" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>411</v>
+      </c>
+      <c r="B406" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>412</v>
+      </c>
+      <c r="B407" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>413</v>
+      </c>
+      <c r="B408" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>414</v>
+      </c>
+      <c r="B409" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>415</v>
+      </c>
+      <c r="B410" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>416</v>
+      </c>
+      <c r="B411" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>417</v>
+      </c>
+      <c r="B412" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>418</v>
+      </c>
+      <c r="B413" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>419</v>
+      </c>
+      <c r="B414" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>420</v>
+      </c>
+      <c r="B415" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>421</v>
+      </c>
+      <c r="B416" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>422</v>
+      </c>
+      <c r="B417" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>423</v>
+      </c>
+      <c r="B418" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>424</v>
+      </c>
+      <c r="B419" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>425</v>
+      </c>
+      <c r="B420" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>426</v>
+      </c>
+      <c r="B421" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>427</v>
+      </c>
+      <c r="B422" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>428</v>
+      </c>
+      <c r="B423" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>429</v>
+      </c>
+      <c r="B424" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>430</v>
+      </c>
+      <c r="B425" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>431</v>
+      </c>
+      <c r="B426" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>432</v>
+      </c>
+      <c r="B427" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>433</v>
+      </c>
+      <c r="B428" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>434</v>
+      </c>
+      <c r="B429" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>435</v>
+      </c>
+      <c r="B430" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>436</v>
+      </c>
+      <c r="B431" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>437</v>
+      </c>
+      <c r="B432" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>438</v>
+      </c>
+      <c r="B433" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>439</v>
+      </c>
+      <c r="B434" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>440</v>
+      </c>
+      <c r="B435" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>441</v>
+      </c>
+      <c r="B436" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>442</v>
+      </c>
+      <c r="B437" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>443</v>
+      </c>
+      <c r="B438" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>444</v>
+      </c>
+      <c r="B439" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>445</v>
+      </c>
+      <c r="B440" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>446</v>
+      </c>
+      <c r="B441" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>447</v>
+      </c>
+      <c r="B442" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>448</v>
+      </c>
+      <c r="B443" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>449</v>
+      </c>
+      <c r="B444" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>450</v>
+      </c>
+      <c r="B445" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>451</v>
+      </c>
+      <c r="B446" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>452</v>
+      </c>
+      <c r="B447" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>453</v>
+      </c>
+      <c r="B448" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>454</v>
+      </c>
+      <c r="B449" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>455</v>
+      </c>
+      <c r="B450" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>456</v>
+      </c>
+      <c r="B451" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>457</v>
+      </c>
+      <c r="B452" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>458</v>
+      </c>
+      <c r="B453" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>459</v>
+      </c>
+      <c r="B454" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>460</v>
+      </c>
+      <c r="B455" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>461</v>
+      </c>
+      <c r="B456" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>462</v>
+      </c>
+      <c r="B457" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>463</v>
+      </c>
+      <c r="B458" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>464</v>
+      </c>
+      <c r="B459" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>465</v>
+      </c>
+      <c r="B460" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>466</v>
+      </c>
+      <c r="B461" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>467</v>
+      </c>
+      <c r="B462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>468</v>
+      </c>
+      <c r="B463" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>469</v>
+      </c>
+      <c r="B464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>470</v>
+      </c>
+      <c r="B465" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>471</v>
+      </c>
+      <c r="B466" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>472</v>
+      </c>
+      <c r="B467" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>473</v>
+      </c>
+      <c r="B468" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>474</v>
+      </c>
+      <c r="B469" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>475</v>
+      </c>
+      <c r="B470" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>476</v>
+      </c>
+      <c r="B471" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>477</v>
+      </c>
+      <c r="B472" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>478</v>
+      </c>
+      <c r="B473" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>479</v>
+      </c>
+      <c r="B474" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>480</v>
+      </c>
+      <c r="B475" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>481</v>
+      </c>
+      <c r="B476" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>482</v>
+      </c>
+      <c r="B477" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>483</v>
+      </c>
+      <c r="B478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>484</v>
+      </c>
+      <c r="B479" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>485</v>
+      </c>
+      <c r="B480" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>486</v>
+      </c>
+      <c r="B481" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>487</v>
+      </c>
+      <c r="B482" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>488</v>
+      </c>
+      <c r="B483" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>489</v>
+      </c>
+      <c r="B484" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>490</v>
+      </c>
+      <c r="B485" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>491</v>
+      </c>
+      <c r="B486" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B487" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B488" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B489" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B490" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="504">
   <si>
     <t>link</t>
   </si>
@@ -1412,9 +1412,6 @@
     <t>https://www.popsci.com/lizard-climate-change-evolution</t>
   </si>
   <si>
-    <t>https://www.popsci.com/work-out-sick</t>
-  </si>
-  <si>
     <t>https://www.popsci.com/bird-migration-night-track</t>
   </si>
   <si>
@@ -1500,9 +1497,6 @@
   </si>
   <si>
     <t>https://www.popularmechanics.com/science/a20066496/household-items-stop-bullet/</t>
-  </si>
-  <si>
-    <t>https://www.popularmechanics.com/science/health/a20650096/doctors-grow-replacement-ear-inside-patients-arm/</t>
   </si>
   <si>
     <t>https://www.popularmechanics.com/science/animals/a20667736/jumping-spider</t>
@@ -1562,6 +1556,36 @@
       </rPr>
       <t>-trying-to-reverse-aging/</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.atlasobscura.com/articles/found-first-record-of-rare-tiny-deer-in-vietnam?utm_source=facebook.com&amp;utm_medium=atlas-page</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Audio_signal_processing</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Digital_signal_(signal_processing)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Floating-point_arithmetic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wolfram_Mathematica</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Computer_algebra_system</t>
+  </si>
+  <si>
+    <t>https://filmora.wondershare.com/video-editor/free-video-editing-software-windows.html</t>
+  </si>
+  <si>
+    <t>https://www.pcmag.com/article2/0,2817,2397215,00.asp</t>
+  </si>
+  <si>
+    <t>https://beebom.com/best-audio-editing-software/</t>
+  </si>
+  <si>
+    <t>https://www.musicianonamission.com/best-free-audio-editor/</t>
   </si>
 </sst>
 </file>
@@ -1625,11 +1649,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1914,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F490"/>
+  <dimension ref="A1:F498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="A501" sqref="A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5585,7 +5608,7 @@
         <v>462</v>
       </c>
       <c r="B457" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -5593,7 +5616,7 @@
         <v>463</v>
       </c>
       <c r="B458" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -5609,7 +5632,7 @@
         <v>465</v>
       </c>
       <c r="B460" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -5617,7 +5640,7 @@
         <v>466</v>
       </c>
       <c r="B461" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -5625,7 +5648,7 @@
         <v>467</v>
       </c>
       <c r="B462" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -5633,7 +5656,7 @@
         <v>468</v>
       </c>
       <c r="B463" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -5641,7 +5664,7 @@
         <v>469</v>
       </c>
       <c r="B464" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -5681,7 +5704,7 @@
         <v>474</v>
       </c>
       <c r="B469" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -5713,7 +5736,7 @@
         <v>478</v>
       </c>
       <c r="B473" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -5721,7 +5744,7 @@
         <v>479</v>
       </c>
       <c r="B474" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -5737,7 +5760,7 @@
         <v>481</v>
       </c>
       <c r="B476" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -5761,7 +5784,7 @@
         <v>484</v>
       </c>
       <c r="B479" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -5769,7 +5792,7 @@
         <v>485</v>
       </c>
       <c r="B480" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -5777,7 +5800,7 @@
         <v>486</v>
       </c>
       <c r="B481" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -5785,7 +5808,7 @@
         <v>487</v>
       </c>
       <c r="B482" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -5793,7 +5816,7 @@
         <v>488</v>
       </c>
       <c r="B483" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -5809,15 +5832,15 @@
         <v>490</v>
       </c>
       <c r="B485" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B486" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>491</v>
-      </c>
-      <c r="B486" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -5825,19 +5848,19 @@
         <v>492</v>
       </c>
       <c r="B487" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B488" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B488" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="4" t="s">
+      <c r="A489" t="s">
         <v>494</v>
       </c>
       <c r="B489" t="s">
@@ -5845,11 +5868,75 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="4" t="s">
+      <c r="A490" t="s">
         <v>495</v>
       </c>
       <c r="B490" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>496</v>
+      </c>
+      <c r="B491" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>497</v>
+      </c>
+      <c r="B492" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>498</v>
+      </c>
+      <c r="B493" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>499</v>
+      </c>
+      <c r="B494" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>500</v>
+      </c>
+      <c r="B495" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>501</v>
+      </c>
+      <c r="B496" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>502</v>
+      </c>
+      <c r="B497" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>503</v>
+      </c>
+      <c r="B498" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="507">
   <si>
     <t>link</t>
   </si>
@@ -1586,6 +1586,15 @@
   </si>
   <si>
     <t>https://www.musicianonamission.com/best-free-audio-editor/</t>
+  </si>
+  <si>
+    <t>https://boingboing.net/2017/09/05/how-to-decode-the-images-on-th.html</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/2568673/inverse-dictionary-lookup-in-python</t>
+  </si>
+  <si>
+    <t>http://net-informations.com/faq/default.htm</t>
   </si>
 </sst>
 </file>
@@ -1937,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F498"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501"/>
+      <selection activeCell="A487" sqref="A487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,6 +5945,30 @@
         <v>503</v>
       </c>
       <c r="B498" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>504</v>
+      </c>
+      <c r="B499" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>505</v>
+      </c>
+      <c r="B500" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>506</v>
+      </c>
+      <c r="B501" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="511">
   <si>
     <t>link</t>
   </si>
@@ -1595,6 +1595,18 @@
   </si>
   <si>
     <t>http://net-informations.com/faq/default.htm</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/politics/challenges-have-dogged-obamas-health-plan-since-2010/2013/11/02/453fba42-426b-11e3-a624-41d661b0bb78_print.html?</t>
+  </si>
+  <si>
+    <t>http://nymag.com/daily/intelligencer/2013/11/how-i-learned-to-love-twitter.html</t>
+  </si>
+  <si>
+    <t>https://www.theawl.com/2015/12/access-denied/</t>
+  </si>
+  <si>
+    <t>https://www.vqronline.org/essays-articles/2016/07/mysterious-american-cat</t>
   </si>
 </sst>
 </file>
@@ -1946,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:F505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A487" sqref="A487"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="A504" sqref="A504:B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,6 +5982,38 @@
       </c>
       <c r="B501" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>507</v>
+      </c>
+      <c r="B502" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>508</v>
+      </c>
+      <c r="B503" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B504" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>510</v>
+      </c>
+      <c r="B505" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5991,8 +6035,9 @@
     <hyperlink ref="A26" r:id="rId15"/>
     <hyperlink ref="A12" r:id="rId16"/>
     <hyperlink ref="A88" r:id="rId17"/>
+    <hyperlink ref="A504" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="527">
   <si>
     <t>link</t>
   </si>
@@ -1608,12 +1608,60 @@
   <si>
     <t>https://www.vqronline.org/essays-articles/2016/07/mysterious-american-cat</t>
   </si>
+  <si>
+    <t>https://medium.com/content-uneditable/circular-dependencies-in-javascript-a-k-a-coding-is-not-a-rock-paper-scissors-game-9c2a9eccd4bc</t>
+  </si>
+  <si>
+    <t>https://medium.com/javascript-scene/inside-the-dev-team-death-spiral-6a7ea255467b</t>
+  </si>
+  <si>
+    <t>https://qz.com/1285418/giant-predatory-worms-from-asia-are-invading-france/?utm_source=parAO</t>
+  </si>
+  <si>
+    <t>https://sexier.com/live-sex-chats/?queryid=138</t>
+  </si>
+  <si>
+    <t>https://vividcams.com/?AFNO=MjAyOTEzLjU0LjQ2LjEwMi4xOS4wLjAuMC4w&amp;mobile=0&amp;nats=MjAyOTEzLjU0LjQ2LjEwMi4xOS4wLjAuMC4w&amp;strack=0&amp;switched=1</t>
+  </si>
+  <si>
+    <t>https://cams.com/go/g1424946-pct</t>
+  </si>
+  <si>
+    <t>http://myporncams.com/</t>
+  </si>
+  <si>
+    <t>https://livecam-experts.com/</t>
+  </si>
+  <si>
+    <t>https://www.xlovecam.com/en/</t>
+  </si>
+  <si>
+    <t>https://www.flirt4free.com/live/girls/</t>
+  </si>
+  <si>
+    <t>https://www.pornication.com/?AFNO=1-247331-2-2-bestxxxsites</t>
+  </si>
+  <si>
+    <t>https://www.myfreecams.com/?cam=30546&amp;omp=2&amp;track=102c530982c0f2496e5886e66ee166&amp;skip_oapopup=1&amp;r=0&amp;mfwd=1#{model}</t>
+  </si>
+  <si>
+    <t>https://www.privatefeeds.com/?AFNO=1-247331-2-bestxxxsites</t>
+  </si>
+  <si>
+    <t>https://www.streamate.com/?AFNO=1-0-642160-356079&amp;DF=0&amp;UHNSMTY=303</t>
+  </si>
+  <si>
+    <t>https://www.evilangellive.com/?AFNO=1-247331-2-2-bestxxxsites</t>
+  </si>
+  <si>
+    <t>https://www.watchmygf.me/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +1696,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1670,11 +1725,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1958,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F505"/>
+  <dimension ref="A1:F521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="A504" sqref="A504:B505"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="A521" sqref="A521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6014,6 +6072,134 @@
       </c>
       <c r="B505" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>511</v>
+      </c>
+      <c r="B506" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B507" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>513</v>
+      </c>
+      <c r="B508" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>514</v>
+      </c>
+      <c r="B509" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>515</v>
+      </c>
+      <c r="B510" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>516</v>
+      </c>
+      <c r="B511" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>517</v>
+      </c>
+      <c r="B512" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>519</v>
+      </c>
+      <c r="B513" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>518</v>
+      </c>
+      <c r="B514" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>520</v>
+      </c>
+      <c r="B515" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>521</v>
+      </c>
+      <c r="B516" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>522</v>
+      </c>
+      <c r="B517" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>523</v>
+      </c>
+      <c r="B518" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>524</v>
+      </c>
+      <c r="B519" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>525</v>
+      </c>
+      <c r="B520" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>526</v>
+      </c>
+      <c r="B521" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="529">
   <si>
     <t>link</t>
   </si>
@@ -78,13 +78,1596 @@
   </si>
   <si>
     <t>http://www.foodemperor.com/cooking/bigos</t>
+  </si>
+  <si>
+    <t>http://www.foodemperor.com/cooking/hipster-butternut-squash-soup</t>
+  </si>
+  <si>
+    <t>http://www.foodemperor.com/cooking/chokladbollar</t>
+  </si>
+  <si>
+    <t>http://www.foodemperor.com/cooking/cherry-chocolate-pancakes</t>
+  </si>
+  <si>
+    <t>http://www.foodemperor.com/cooking/minchia-milanese</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jesus_nut</t>
+  </si>
+  <si>
+    <t>https://worldbuilding.stackexchange.com/questions/62834/are-endothermic-bombs-possible</t>
+  </si>
+  <si>
+    <t>http://blowflygirl.blogspot.com/2009/08/here-is-my-maggot-story.html?zx=4eacfff98a271ec2</t>
+  </si>
+  <si>
+    <t>Porn</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cytokine_release_syndrome</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>http://www.sinobiological.com/Cytokine-Storm-Cytokine-Storms-a-5800.html</t>
+  </si>
+  <si>
+    <t>https://pl.wikipedia.org/wiki/Wireless_Markup_Language</t>
+  </si>
+  <si>
+    <t>https://www.howtogeek.com/howto/windows-vista/add-open-with-notepad-to-the-context-menu-for-all-files/</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1240164/Web-API-in-NET-Core</t>
+  </si>
+  <si>
+    <t>http://www.ctrl-alt-test.fr/2018/a-dive-into-the-making-of-immersion/</t>
+  </si>
+  <si>
+    <t>https://github.com/esimov/caire</t>
+  </si>
+  <si>
+    <t>http://carlcheo.com/computer-tips-and-tricks</t>
+  </si>
+  <si>
+    <t>https://github.com/zeeshanu/learn-regex</t>
+  </si>
+  <si>
+    <t>https://medium.com/refactoring-ui/7-practical-tips-for-cheating-at-design-40c736799886</t>
+  </si>
+  <si>
+    <t>https://news.yale.edu/2018/05/02/yale-physicists-find-signs-time-crystal</t>
+  </si>
+  <si>
+    <t>https://www.newscientist.com/article/2168077-people-adapted-to-the-cold-and-got-more-migraines-as-a-result/</t>
+  </si>
+  <si>
+    <t>http://reallifemag.com/doomsday-pattern/</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>https://medium.com/@jamesbridle/something-is-wrong-on-the-internet-c39c471271d2</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/earth/story/20150625-islands-where-evolution-ran-riot</t>
+  </si>
+  <si>
+    <t>https://www.quantamagazine.org/oxygen-and-stem-cells-reshaped-animals-during-the-cambrian-explosion-20180307/</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/investigations/south-korean-firm-paid-michael-cohen-150000-as-it-sought-contract-from-us-government/2018/05/09/0ae31788-53b7-11e8-abd8-265bd07a9859_story.html?noredirect=on&amp;utm_term=.57e0eb1985c7</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/story/2018/05/10/gerrymandering-midterms-democrats-house-seats-579890</t>
+  </si>
+  <si>
+    <t>https://www.eff.org/deeplinks/2018/05/fourth-circuit-rules-suspicionless-forensic-searches-electronic-devices-border-are</t>
+  </si>
+  <si>
+    <t>https://www.thedailybeast.com/mccain-confirms-he-gave-trump-dossier-to-comey-duty-demanded-i-do-it</t>
+  </si>
+  <si>
+    <t>http://thehill.com/homenews/senate/387037-mccain-urges-senate-to-reject-haspels-nomination</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/news/the-switch/wp/2018/05/10/here-are-the-3400-facebook-ads-purchased-by-russias-online-trolls-during-the-2016-election/?utm_term=.4d6bd1bca538</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/news/politics/wp/2018/05/10/suddenly-pence-suggests-investigations-into-the-president-have-expiration-dates/?noredirect=on&amp;utm_term=.a31b394955c4</t>
+  </si>
+  <si>
+    <t>https://www.dallasnews.com/business/att/2018/05/09/att-gave-information-mueller-regarding-payments-trump-lawyer</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2018-05-10/merkel-says-europe-can-t-count-on-u-s-military-umbrella-anymore</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2018-05-10/can-putin-stop-israel-and-iran-going-to-war</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2018-05-10/britain-s-retired-sun-seekers-risk-losing-pensions-after-brexit</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2018-05-10/israel-hits-targets-in-syria-says-iran-fired-missiles-at-golan</t>
+  </si>
+  <si>
+    <t>https://www.literotica.com/s/the-ebony-goddess</t>
+  </si>
+  <si>
+    <t>https://www.literotica.com/s/moira-seduces-her-priest</t>
+  </si>
+  <si>
+    <t>https://www.literotica.com/s/roxanne-3</t>
+  </si>
+  <si>
+    <t>https://www.literotica.com/s/but-i-digress</t>
+  </si>
+  <si>
+    <t>https://www.literotica.com/s/going-with-the-flow-3</t>
+  </si>
+  <si>
+    <t>https://www.literotica.com/s/the-accident-ch-05-1</t>
+  </si>
+  <si>
+    <t>https://www.youporn.com/</t>
+  </si>
+  <si>
+    <t>http://pornhamster.com/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/boundary-fill-algorithm/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/factorial-number-plsql/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-dimensions-multidimensional-array-c/</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/forums/viewtopic.php?f=36&amp;t=18916</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Twisted_pair</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/science/2017/04/watch-militarized-microbes-use-some-sophisticated-weapons-to-snare-prey/</t>
+  </si>
+  <si>
+    <t>https://timeline.com/life-american-country-doctor-9434632e1134</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/health/a26038/the-blood-of-the-crab/</t>
+  </si>
+  <si>
+    <t>https://www.hakaimagazine.com/news/walking-trees-terrorize-marshes/</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/future/story/20170919-how-flying-seriously-messes-with-your-mind</t>
+  </si>
+  <si>
+    <t>https://www.quantamagazine.org/choosy-eggs-may-pick-sperm-for-their-genes-defying-mendels-law-20171115/</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/03/07/science/pitcher-plants-insects.html</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/health/a25821/bad-luck-causes-cancer/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/Cooking/comments/8i9jpb/recipe_easy_chinese_shrimp_fried_rice/</t>
+  </si>
+  <si>
+    <t>https://newrepublic.com/article/148361/building-nasa-prescription-drugs</t>
+  </si>
+  <si>
+    <t>https://www.ctvnews.ca/health/scientist-wants-genetic-test-across-canada-to-gauge-risks-of-kids-cancer-drugs-1.3923292</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/science/2018/05/usda-wants-public-comments-on-its-plan-to-label-gmo-foods/</t>
+  </si>
+  <si>
+    <t>http://news.flinders.edu.au/blog/2018/05/10/can-antibiotics-impair-babys-vaccine-response/</t>
+  </si>
+  <si>
+    <t>https://www.independent.co.uk/life-style/health-and-families/cranberry-juice-uti-urine-infections-treatment-cure-nice-health-guidelines-a8342536.html</t>
+  </si>
+  <si>
+    <t>http://www.newsweek.com/ebola-virus-congo-democratic-republic-congo-916057</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/world-us-canada-44059865</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/article/us-usa-internet/fcc-says-net-neutrality-rules-will-end-in-june-idUSKBN1IB1UN</t>
+  </si>
+  <si>
+    <t>http://www.nationalgeographic.com.au/nature/the-worlds-largest-living-organism.aspx</t>
+  </si>
+  <si>
+    <t>https://www.indiatvnews.com/science/news-massive-solar-storm-expected-to-hit-earth-today-tech-blackout-possible-all-you-need-to-know-440920</t>
+  </si>
+  <si>
+    <t>https://www.damninteresting.com/the-curse-of-konzo/</t>
+  </si>
+  <si>
+    <t>http://www.nationalgeographic.com.au/animals/natures-bald-and-hairless-animals.aspx</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/space/moon-mars/a20511058/statically-charged-lunar-dust-lungs-moon-cancer/</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/05/04/science/first-animal-genes-evolution.html</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/health-44038756</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/science-environment-44075687</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/technology-44083078</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/future/story/20180510-why-our-facial-expressions-dont-reflect-our-feelings</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/uk-england-essex-44082764</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/world-australia-44078255</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/world-middle-east-44080460</t>
+  </si>
+  <si>
+    <t>http://blog.adnansiddiqi.me/how-to-speed-up-your-python-web-scraper-by-using-multiprocessing/</t>
+  </si>
+  <si>
+    <t>https://www.damninteresting.com/on-the-origin-of-circuits/</t>
+  </si>
+  <si>
+    <t>https://www.verywellhealth.com/does-asperger-syndrome-still-exist-259944</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/10168686/image-processing-algorithm-improvement-for-coca-cola-can-recognition</t>
+  </si>
+  <si>
+    <t>https://news.mongabay.com/2018/05/un-forest-accounting-loophole-allows-co2-underreporting-by-eu-uk-us/</t>
+  </si>
+  <si>
+    <t>https://www.independent.co.uk/environment/amphibian-extinction-plague-frog-crisis-origin-discovered-a8345731.html</t>
+  </si>
+  <si>
+    <t>https://www.outsideonline.com/2297996/fires-changing-forests</t>
+  </si>
+  <si>
+    <t>http://www.biologicaldiversity.org/news/press_releases/2018/wildlife-refuge-pesticides-05-10-2018.php</t>
+  </si>
+  <si>
+    <t>https://phys.org/news/2018-05-large-predators-near-extinction-unexpected.html</t>
+  </si>
+  <si>
+    <t>https://coloradoboulevard.net/pasadena-profits-from-killing-of-endangered-species/</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/d41586-018-05061-9</t>
+  </si>
+  <si>
+    <t>https://www.atlasobscura.com/articles/do-plants-communicate-underground</t>
+  </si>
+  <si>
+    <t>http://thehill.com/policy/energy-environment/386278-interior-guidance-disallows-employees-from-telling-builders-they</t>
+  </si>
+  <si>
+    <t>https://www.foodnetwork.com/fn-dish/recipes/2013/05/best-pancake-recipes</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/food/recipes/chicken_parmentier_25434</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/food/recipes/chickensaladwithcous_92275</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/food/recipes/honeycake_67599</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/food/recipes/coffeeandwalnutcake_83909</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/food/recipes/easy_chocolate_cake_31070</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/food/recipes/classic_carrot_cake_08513</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/food/bulgur_wheat</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/food/hollandaise_sauce</t>
+  </si>
+  <si>
+    <t>https://www.cookingclassy.com/chinese-orange-chicken/</t>
+  </si>
+  <si>
+    <t>https://www.cookingclassy.com/sesame-noodles-with-chicken-and-broccoli/</t>
+  </si>
+  <si>
+    <t>https://www.cookingclassy.com/ginger-chicken-stir-fry-asparagus/</t>
+  </si>
+  <si>
+    <t>http://www.foodnetwork.ca/everyday-cooking/recipe/arroz-con-pollo-with-salsa-verde/21722/</t>
+  </si>
+  <si>
+    <t>http://www.foodnetwork.ca/everyday-cooking/recipe/brandy-and-orange-chicken-breasts-topped-with-stuffed-shrimp/21720/</t>
+  </si>
+  <si>
+    <t>http://www.foodnetwork.ca/everyday-cooking/recipe/chicken-avocado-cream-and-quinoa-salad-in-a-jar/21729/</t>
+  </si>
+  <si>
+    <t>http://www.foodnetwork.ca/everyday-cooking/recipe/spiked-chocolate-and-coffee-milkshakes/21707/</t>
+  </si>
+  <si>
+    <t>http://www.foodnetwork.ca/everyday-cooking/recipe/smoked-trout-frittata/21689/</t>
+  </si>
+  <si>
+    <t>http://www.foodnetwork.ca/everyday-cooking/recipe/sausage-and-parmesan-waffles/21693/</t>
+  </si>
+  <si>
+    <t>https://www.bbcgoodfood.com/recipes/ginger-marmalade-roulade</t>
+  </si>
+  <si>
+    <t>https://www.bbcgoodfood.com/recipes/cider-can-soy-glazed-duck</t>
+  </si>
+  <si>
+    <t>https://www.bbcgoodfood.com/recipes/barbecue-sesame-sweet-potatoes</t>
+  </si>
+  <si>
+    <t>https://www.bbcgoodfood.com/recipes/vegan-christmas-pudding</t>
+  </si>
+  <si>
+    <t>https://www.bbcgoodfood.com/recipes/collection/marathon-recipes</t>
+  </si>
+  <si>
+    <t>https://www.bbcgoodfood.com/recipes/collection/healthy-spring</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/260024/italian-baked-eggplant-with-parmesan-parmigiana-di-melanzane/?internalSource=rotd&amp;referringContentType=home%20page</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/7878/blueberry-coffee-cake-i/?internalSource=popular&amp;referringContentType=home%20page&amp;clickId=cardslot%203</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/40573/blackened-shrimp-stroganoff/?internalSource=popular&amp;referringContentType=home%20page&amp;clickId=cardslot%206</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/216914/beef-chimichangas/?internalSource=popular&amp;referringContentType=home%20page&amp;clickId=cardslot%204</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/261464/french-onion-dip-sandwiches-slow-cooker/?internalSource=popular&amp;referringContentType=home%20page&amp;clickId=cardslot%2016</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/230298/slow-cooker-vegetarian-minestrone/?internalSource=popular&amp;referringContentType=home%20page&amp;clickId=cardslot%2015</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/236600/chef-johns-cauliflower-pizza-crust/?internalSource=streams&amp;referringId=741&amp;referringContentType=recipe%20hub&amp;clickId=st_trending_b</t>
+  </si>
+  <si>
+    <t>https://www.allrecipes.com/recipe/143886/creamy-strawberry-crepes/?internalSource=streams&amp;referringId=1445&amp;referringContentType=recipe%20hub&amp;clickId=st_trending_b</t>
+  </si>
+  <si>
+    <t>http://www.skyandtelescope.com/astronomy-news/gravitational-waves-neutron-star-interiors/</t>
+  </si>
+  <si>
+    <t>http://www.astronomy.com/news/2017/01/jupiter-mass-spit-balls</t>
+  </si>
+  <si>
+    <t>http://www.astronomy.com/news/2017/05/black-hole-sun</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/article/the-milky-ways-speediest-stars-could-solve-a-50-year-old-mystery/?utm_source=newsletter&amp;utm_medium=email&amp;utm_campaign=sciences&amp;utm_content=link&amp;utm_term=2018-05-11_top-stories&amp;spMailingID=56599235&amp;spUserID=NTM5NzI1MDIyMAS2&amp;spJobID=1401706777&amp;spReportId=MTQwMTcwNjc3NwS2</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/news/soloish/wp/2018/04/09/how-romance-can-protect-gay-and-lesbian-youth-from-emotional-distress/?utm_term=.99b2e703fcf2</t>
+  </si>
+  <si>
+    <t>https://www.wur.nl/en/newsarticle/Close-relative-of-the-cultivated-tomato-is-resistant-to-many-insects.htm</t>
+  </si>
+  <si>
+    <t>https://www.urmc.rochester.edu/news/story/5326/the-bugs-in-your-gut-could-make-you-weak-in-the-knees.aspx</t>
+  </si>
+  <si>
+    <t>http://www.psypost.org/2018/04/coffee-can-help-people-favorable-view-colleagues-according-new-research-51100</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.com/about/press-releases/research-and-journals/is-the-queen-bee-phenomenon-a-myth</t>
+  </si>
+  <si>
+    <t>https://www.brightsurf.com/news/article/050718455964/alligators-on-the-beach-killer-whales-in-rivers-get-used-to-it.html</t>
+  </si>
+  <si>
+    <t>https://mechanical.illinois.edu/news/strong-carbon-fiber-artificial-muscles-can-lift-12600-times-their-own-weight</t>
+  </si>
+  <si>
+    <t>http://www.psypost.org/2018/04/collective-narcissism-predicted-growth-conspiracy-thinking-2016-election-study-finds-51095</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-018-25344-5</t>
+  </si>
+  <si>
+    <t>http://www.udel.edu/udaily/2018/april/xiaopeng-ji-napping-neurocognitive-function/</t>
+  </si>
+  <si>
+    <t>https://news.umich.edu/everything-repellent-coating-could-kidproof-phones-homes/</t>
+  </si>
+  <si>
+    <t>https://www.nbcnews.com/health/health-news/new-drug-uses-antibodies-stop-chronic-migraines-without-side-effects-n866696</t>
+  </si>
+  <si>
+    <t>http://www.psypost.org/2018/05/testosterone-increases-narcissism-corruption-among-power-study-suggests-51203</t>
+  </si>
+  <si>
+    <t>http://www.manchester.ac.uk/discover/news/research-reveals-stronger-people-have-healthier-brains/</t>
+  </si>
+  <si>
+    <t>https://sydney.edu.au/news-opinion/news/2018/05/07/-eggs-not-linked-to-cardiovascular-risk--despite-conflicting-adv.html</t>
+  </si>
+  <si>
+    <t>http://news.mit.edu/2018/fasting-boosts-stem-cells-regenerative-capacity-0503</t>
+  </si>
+  <si>
+    <t>http://www.washington.edu/news/2018/04/12/peptide-based-biogenic-dental-product-may-cure-cavities/</t>
+  </si>
+  <si>
+    <t>https://news.cnrs.fr/articles/animal-extinction-hidden-in-plain-sight</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/d41586-018-05055-7</t>
+  </si>
+  <si>
+    <t>https://digest.bps.org.uk/2018/04/25/study-of-long-term-heterosexual-couples-finds-women-over-estimate-and-men-underestimate-their-partners-sexual-advances/</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fphys.2018.00387/full</t>
+  </si>
+  <si>
+    <t>http://www.sciencemag.org/news/2018/01/superblack-bird-paradise-feathers-absorb-9995-light</t>
+  </si>
+  <si>
+    <t>https://www.eurekalert.org/pub_releases/2018-04/nu-van042718.php</t>
+  </si>
+  <si>
+    <t>https://news.rutgers.edu/solar-powered-sea-slugs-shed-light-search-perpetual-green-energy/20180502#.Wu2MWIp_Xxx</t>
+  </si>
+  <si>
+    <t>http://news.berkeley.edu/2018/04/16/thin-film-converts-heat-from-electronics-into-energy/</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fmars.2018.00142/full</t>
+  </si>
+  <si>
+    <t>https://ajph.aphapublications.org/doi/10.2105/AJPH.2018.304360</t>
+  </si>
+  <si>
+    <t>http://newsroom.ucla.edu/releases/noninvasive-spinal-stimulation-method-enables-paralyzed-people-to-regain-use-of-hands-study-finds</t>
+  </si>
+  <si>
+    <t>https://news.ncsu.edu/2018/05/parental-support-career-success/</t>
+  </si>
+  <si>
+    <t>https://www.inquisitr.com/4865808/soda-tax-impact-philadelphia-residents-40-percent-less-likely-to-drink-sugary-soda-each-day-after-new-tax/</t>
+  </si>
+  <si>
+    <t>https://www.cbsnews.com/news/mueller-rejects-potus-request-to-answer-questions-in-writing/</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2018/05/08/att-confirms-it-paid-trump-lawyer-michael-cohen-for-insights-on-administration.html</t>
+  </si>
+  <si>
+    <t>https://www.axios.com/russian-bots-increase-2195bf68-567c-4466-a705-17e69d4b6cad.html</t>
+  </si>
+  <si>
+    <t>https://apnews.com/bfb5ad674cec4f90b75b5f790d30eb89/McConnell-won't-allow-vote-to-bill-to-protect-Mueller</t>
+  </si>
+  <si>
+    <t>https://slate.com/news-and-politics/2018/04/paul-ryan-balanced-budget-wonk-created-trillion-dollar-deficit-and-then-quit.html</t>
+  </si>
+  <si>
+    <t>https://www.statnews.com/2018/04/17/bernie-sanders-bill-jail-opioid-crisis/</t>
+  </si>
+  <si>
+    <t>https://www.thedailybeast.com/michael-cohens-third-client-is-sean-hannity</t>
+  </si>
+  <si>
+    <t>https://www.theroot.com/seattle-vacates-hundreds-of-marijuana-possession-charge-1825622917</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/politics/democratic-party-files-lawsuit-alleging-russia-the-trump-campaign-and-wikileaks-conspired-to-disrupt-the-2016-campaign/2018/04/20/befe8364-4418-11e8-8569-26fda6b404c7_story.html?utm_term=.e1f9e2e5235f</t>
+  </si>
+  <si>
+    <t>http://thehill.com/homenews/state-watch/386450-connecticut-lawmakers-vote-to-give-electoral-votes-to-presidential</t>
+  </si>
+  <si>
+    <t>http://thehill.com/homenews/senate/383753-senate-panel-moving-ahead-with-mueller-bill-despite-mcconnell-opposition?__twitter_impression=true</t>
+  </si>
+  <si>
+    <t>https://www.huffingtonpost.com/entry/opinion-young-fox-news-hannity_us_5ada4742e4b01c279db447e3?ncid=engmodushpmg00000006</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/story/2018/04/13/rnc-deputy-finance-chair-broidy-resigns-522867</t>
+  </si>
+  <si>
+    <t>http://thehill.com/homenews/administration/385367-trump-if-dems-win-in-2018-theyll-impeach-me</t>
+  </si>
+  <si>
+    <t>https://www.buzzfeed.com/zahrahirji/scott-pruitt-kevin-chmielewski?utm_term=.hgAlr43yG#.qi84bekzE</t>
+  </si>
+  <si>
+    <t>https://www.washingtonexaminer.com/washington-secrets/puerto-rico-opens-bid-for-statehood-enlists-56-million-islanders-in-us</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/05/10/us/politics/rudy-giuliani-resigns-law-firm-greenberg-traurig.html</t>
+  </si>
+  <si>
+    <t>https://beyer.house.gov/news/documentsingle.aspx?DocumentID=826</t>
+  </si>
+  <si>
+    <t>https://gizmodo.com/the-price-of-this-drug-went-up-100-000-percent-since-20-1825819643</t>
+  </si>
+  <si>
+    <t>https://www.autismspeaks.org/science/science-news/new-meta-analysis-confirms-no-association-between-vaccines-and-autism</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/science/2018/05/woman-recieves-5751-er-bill-for-an-ice-pack-and-a-bandage/</t>
+  </si>
+  <si>
+    <t>http://www.newsweek.com/bill-gates-malaria-finding-895363</t>
+  </si>
+  <si>
+    <t>http://www.iiasa.ac.at/web/home/about/news/180416-Lutz-Kebede-life.html</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0747563218301523</t>
+  </si>
+  <si>
+    <t>https://news.llu.edu/for-journalists/press-releases/new-studies-show-dark-chocolate-consumption-reduces-stress-and-inflammation-while-improving-memory-immunity-and-mood</t>
+  </si>
+  <si>
+    <t>http://www.manchester.ac.uk/discover/news/suicidal-thoughts-follow-bad-nights-sleep-in-people-with-depression/</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/article/end-the-war-on-weed/</t>
+  </si>
+  <si>
+    <t>https://www.theverge.com/2018/4/20/17264070/fda-approve-cannabidiol-epidiolex-epilspey-health-research</t>
+  </si>
+  <si>
+    <t>http://time.com/5262794/saunas-stroke-risk/</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/uk-scotland-glasgow-west-43943123</t>
+  </si>
+  <si>
+    <t>https://www.motherjones.com/politics/2018/05/i-was-directed-to-market-oxycontin-a-purdue-pharma-rep-tells-how-he-was-paid-to-push-opioids/</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/ecstasy-can-help-people-with-ptsd-according-to-a-new-study-2018-5?r=US&amp;IR=T</t>
+  </si>
+  <si>
+    <t>http://myfox8.com/2018/04/14/206-million-eggs-from-nc-farm-recalled-after-salmonella-sickens-22-people/</t>
+  </si>
+  <si>
+    <t>https://newatlas.com/cannabis-insomnia-oil-trial/54432/</t>
+  </si>
+  <si>
+    <t>https://medium.freecodecamp.org/we-fired-our-top-talent-best-decision-we-ever-made-4c0a99728fde</t>
+  </si>
+  <si>
+    <t>https://medium.freecodecamp.org/how-to-increase-your-chances-of-landing-a-development-job-acb6759c66da</t>
+  </si>
+  <si>
+    <t>https://medium.freecodecamp.org/how-to-get-out-of-your-coding-rut-and-move-forward-with-your-career-4d656e0cc1c1</t>
+  </si>
+  <si>
+    <t>https://medium.freecodecamp.org/some-of-javascripts-most-useful-features-can-be-tricky-let-me-explain-them-4003d7bbed32</t>
+  </si>
+  <si>
+    <t>https://medium.freecodecamp.org/a-functional-approach-to-merge-sort-and-algorithms-in-general-bbc12457eeb0</t>
+  </si>
+  <si>
+    <t>https://medium.freecodecamp.org/how-you-can-develop-progressive-web-apps-that-feel-native-5110fbbcbf4b</t>
+  </si>
+  <si>
+    <t>https://medium.freecodecamp.org/how-to-build-a-shopping-cart-with-vue-and-dinero-js-22a7dc4c5352</t>
+  </si>
+  <si>
+    <t>https://medium.com/@fightfortheftr/i-know-youre-tired-of-hearing-about-net-neutrality-ba2ef1c51939</t>
+  </si>
+  <si>
+    <t>https://www.theverge.com/2018/4/16/17245010/elizabeth-pierce-fraud-charges-bdac-fcc-ajit-pai</t>
+  </si>
+  <si>
+    <t>https://www.theregister.co.uk/2018/05/08/equifax_breach_may_2018/</t>
+  </si>
+  <si>
+    <t>https://www.vox.com/2018/4/10/17220290/mark-zuckerberg-facemash-testimony</t>
+  </si>
+  <si>
+    <t>http://www.businessinsider.com/amazon-warehouse-workers-have-to-pee-into-bottles-2018-4?IR=T</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/tech-policy/2018/04/france-seizes-france-com-from-man-whos-had-it-since-94-so-he-sues/?comments=1</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2018-04-25/american-cities-are-fighting-big-business-over-wireless-internet-and-they-re-losing</t>
+  </si>
+  <si>
+    <t>https://www.greentechmedia.com/articles/read/new-bipartisan-legislation-would-repeal-trump-admin-solar-tariffs</t>
+  </si>
+  <si>
+    <t>https://www.theregister.co.uk/2018/04/30/net_neutrality_senate_democrats/</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/tech-policy/2018/05/california-net-neutrality-bill-that-att-hates-is-coming-to-new-york-too/</t>
+  </si>
+  <si>
+    <t>https://www.theverge.com/2018/4/30/17303086/bill-gates-trump-white-house-science-advisor</t>
+  </si>
+  <si>
+    <t>https://www.cnet.com/news/net-neutrality-is-officially-dead-fcc-ajit-pai-now-what/</t>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/story/tech/news/2018/04/22/google-amazon-push-power-companies-solar-and-wind-blow-coal/438020002/</t>
+  </si>
+  <si>
+    <t>https://www.theverge.com/2018/5/1/17308418/fcc-commissioner-orielly-trump-law</t>
+  </si>
+  <si>
+    <t>https://www.techdirt.com/articles/20180426/11195739727/cord-cutting-is-obvious-result-70-spike-cable-tv-prices-since-2000.shtml</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com/tech-policy/2018/04/steve-wozniak-leaves-facebook-the-profits-are-all-based-on-the-users-info/</t>
+  </si>
+  <si>
+    <t>http://nymag.com/selectall/2018/04/richard-stallman-rms-on-privacy-data-and-free-software.html</t>
+  </si>
+  <si>
+    <t>https://motherboard.vice.com/en_us/article/wj793y/ajit-pai-net-neutrality-repeal-not-official-yet</t>
+  </si>
+  <si>
+    <t>https://www.techdirt.com/articles/20180410/17590439606/ftc-suddenly-remembers-warranty-void-if-removed-stickers-are-illegal-sends-out-stern-letters-to-manufacturers.shtml</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com/news/articles/2018-04-23/electric-buses-are-hurting-the-oil-industry</t>
+  </si>
+  <si>
+    <t>http://www.post-journal.com/life/viewpoints/2018/05/is-texas-becoming-a-stellar-green-state/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/computer-network-extended-access-list/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/memory-segmentation-8086-microprocessor/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/understanding-static_assert-c-11/</t>
+  </si>
+  <si>
+    <t>http://deadline.com/2018/05/timothy-olyphant-quentin-tarantino-once-upon-a-time-in-hollywood-1202388439/</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>http://www.comingsoon.net/movies/news/945399-milla-jovovichs-monster-hunter-adaptation-to-shoot-in-september</t>
+  </si>
+  <si>
+    <t>http://variety.com/2018/film/news/terrence-malick-tree-of-life-longer-criterion-version-1202807034/</t>
+  </si>
+  <si>
+    <t>http://variety.com/2018/film/news/paramount-snake-eyes-g-i-joe-spinoff-1202807918/</t>
+  </si>
+  <si>
+    <t>https://theplaylist.net/robert-richardson-tarantino-hollywood-20180511/</t>
+  </si>
+  <si>
+    <t>https://www.hollywoodreporter.com/heat-vision/cannes-taika-waititi-talks-bubbles-what-we-do-shadows-spinoff-thor-1111003</t>
+  </si>
+  <si>
+    <t>http://screencrush.com/halloween-2018-reshoots-ending/</t>
+  </si>
+  <si>
+    <t>http://variety.com/2018/film/features/cannes-netflix-buys-animated-robot-movie-next-gen-for-30-million-worldwide-deal-1202807343/</t>
+  </si>
+  <si>
+    <t>https://io9.gizmodo.com/the-frighteners-peter-jacksons-precursor-to-lord-of-th-1825891383</t>
+  </si>
+  <si>
+    <t>http://www.slashfilm.com/lost-in-la-mancha-sequel/</t>
+  </si>
+  <si>
+    <t>https://film.avclub.com/this-michael-shannon-and-ashley-judd-thriller-gets-so-i-1825787526</t>
+  </si>
+  <si>
+    <t>http://birthmoviesdeath.com/2018/05/11/the-man-who-killed-don-quixote-clips-cannes-film-festival-terry-gilliam</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/uk-scotland-44079462</t>
+  </si>
+  <si>
+    <t>https://techtunehub.com/blog/best-car-subwoofers/</t>
+  </si>
+  <si>
+    <t>https://www.independent.co.uk/arts-entertainment/books/features/the-12-most-read-2011-articles-in-arts-entertainment-6279755.html</t>
+  </si>
+  <si>
+    <t>https://www.engadget.com/2018/05/11/apple-music-also-unplugged-r-kelly-from-playlists/</t>
+  </si>
+  <si>
+    <t>http://articles.latimes.com/2010/feb/20/entertainment/la-ca-richard-pryor21-2010feb21</t>
+  </si>
+  <si>
+    <t>http://articles.latimes.com/2014/apr/08/entertainment/la-et-ct-fuhu-tablets-kids-20140408</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/sleep</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/eat-healthy</t>
+  </si>
+  <si>
+    <t>https://jamesclear.com/strength-training</t>
+  </si>
+  <si>
+    <t>https://www.thedailybeast.com/will-we-ever-see-studio-54-again</t>
+  </si>
+  <si>
+    <t>https://www.gq.com/story/john-jeremiah-sullivan-leavin-reality-gq-july-2005-reality-tv-star-future?printable=true</t>
+  </si>
+  <si>
+    <t>http://www.spiegel.de/international/world/doctors-without-borders-has-a-difficult-year-in-war-zones-a-1112009-druck.html</t>
+  </si>
+  <si>
+    <t>http://www.vulture.com/2015/04/jerry-saltz-on-new-whitney-museum.html</t>
+  </si>
+  <si>
+    <t>https://www.wired.com/2015/03/disney-magicband/</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/889607/A-Rich-Find-And-Replace-Control-For-Almost-All-WPF</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1241251/DARL-AI-and-fuzzy-logic-rule-language-examples-scr</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1240640/File-Explorer-Clone-with-Tabs-and-Parallel-File-Se</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1230737/Youve-Got-Spam</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1242221/Fusing-Web-Stacks-With-COBOL-Microservices</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1240471/Tracking-Objects-with-Pixy-Visual-Sensor-on-Raspbe</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1096861/DIY-electronic-RFID-Door-Lock-with-Battery-Backup</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1241241/Beyond-Arduino-Create-Developing-UP-Squared-Projec</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/1241998/Getting-Started-with-Python-and-MongoDB</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/bbcthree/article/d342e05c-58a4-493d-92c7-c77bbc872ab5</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/business-44066077</t>
+  </si>
+  <si>
+    <t>http://www.wired.co.uk/article/android-p-material-design-google-io</t>
+  </si>
+  <si>
+    <t>http://www.wired.co.uk/article/tupac-michael-jackson-billie-holiday-dead-celebrity-holograms</t>
+  </si>
+  <si>
+    <t>http://www.wired.co.uk/article/google-duplex-demo-innovation-google-pixel-buds</t>
+  </si>
+  <si>
+    <t>http://www.wired.co.uk/article/gmail-hacks-extensions</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/news/2018/may/03/why-silicon-valley-cant-fix-itself-tech-humanism</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/technology/2018/may/10/apple-scraps-850m-irish-data-centre-after-planning-delays-ireland</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/technology/2018/may/06/no-death-and-an-enhanced-life-is-the-future-transhuman</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/technology/2018/feb/05/amazon-echo-spot-review-cute-smart-speaker-screen-alarm-clock</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/technology/technology</t>
+  </si>
+  <si>
+    <t>https://www.technologyreview.com/lists/technologies/2018/</t>
+  </si>
+  <si>
+    <t>http://www.wired.co.uk/article/rnli-coastguard-drones-search-rescue-missions</t>
+  </si>
+  <si>
+    <t>http://www.english-online.at/entertainment/third-man/third-man.htm</t>
+  </si>
+  <si>
+    <t>http://www.english-online.at/entertainment/amusement-park/amusement-parks.htm</t>
+  </si>
+  <si>
+    <t>http://www.english-online.at/entertainment/ferris-wheel/observation-wheels.htm</t>
+  </si>
+  <si>
+    <t>http://www.english-online.at/entertainment/twilight-saga/twilight-saga.htm</t>
+  </si>
+  <si>
+    <t>https://www.magzter.com/article/Computer-Mobile/Techlife-News/Summer-Movies-Hollywood-Roars-Back-Into-Action</t>
+  </si>
+  <si>
+    <t>https://www.magzter.com/article/Mens-Interest/Maxim-India/6-Hollywood-Bombshells-Who-Reshaped-Pop-Culture</t>
+  </si>
+  <si>
+    <t>https://www.magzter.com/article/Business/Entrepreneur/No-Experience-No-Problem</t>
+  </si>
+  <si>
+    <t>https://www.magzter.com/article/Fashion/VOGUE-India/Why-Are-160-Million-People-Obsessed-With-Kim-Kardashian-West</t>
+  </si>
+  <si>
+    <t>https://www.magzter.com/article/Computer-Mobile/Techlife-News/In-Oscar-Best-Picture-Race-An-Unprecedented-Nail-Biter</t>
+  </si>
+  <si>
+    <t>http://www.nydailynews.com/entertainment/xzibit-sued-allegedly-advertising-pesticide-tainted-cannabis-article-1.3985103</t>
+  </si>
+  <si>
+    <t>https://www.wikihow.com/Reduce-Entertainment-Expenses</t>
+  </si>
+  <si>
+    <t>http://www.articlesfactory.com/articles/entertainment.html</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/</t>
+  </si>
+  <si>
+    <t>https://www.tnaflix.com/</t>
+  </si>
+  <si>
+    <t>https://www.porn.com/</t>
+  </si>
+  <si>
+    <t>https://www.hclips.com/</t>
+  </si>
+  <si>
+    <t>https://www.drtuber.com/</t>
+  </si>
+  <si>
+    <t>https://www.sexvid.xxx/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eucalyptus</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Crete</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ruby-crowned_kinglet</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Monarch_butterfly</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Invasive_species</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guitar</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Flamenco</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dance</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Science</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technological_singularity</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Molecular_nanotechnology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Physics</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Astronomy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Medicine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Therapy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Disease</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Health</t>
+  </si>
+  <si>
+    <t>https://www.mofosex.com/</t>
+  </si>
+  <si>
+    <t>http://xbabe.com/</t>
+  </si>
+  <si>
+    <t>https://updatetube.com/</t>
+  </si>
+  <si>
+    <t>https://befuck.com/</t>
+  </si>
+  <si>
+    <t>https://masseurporn.com/</t>
+  </si>
+  <si>
+    <t>https://www.hdmovz.com/</t>
+  </si>
+  <si>
+    <t>https://www.pornrox.com/</t>
+  </si>
+  <si>
+    <t>http://pornmaki.com/</t>
+  </si>
+  <si>
+    <t>https://www.pornid.xxx/</t>
+  </si>
+  <si>
+    <t>https://www.inxporn.com/</t>
+  </si>
+  <si>
+    <t>http://www.slutload.com/</t>
+  </si>
+  <si>
+    <t>https://www.proporn.com/</t>
+  </si>
+  <si>
+    <t>https://www.fakeporn.tv/</t>
+  </si>
+  <si>
+    <t>http://www.pornhost.com/</t>
+  </si>
+  <si>
+    <t>https://handjobhub.com/</t>
+  </si>
+  <si>
+    <t>https://www.vpornvideos.com/</t>
+  </si>
+  <si>
+    <t>http://boundhub.com/</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/medicine/drugs/pharmacology/atropine</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/education/psychology-degrees-and-programs/forensic-psychology</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/medicine/diseases-and-conditions/pathology/autism</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/places/britain-ireland-france-and-low-countries/french-and-benelux-physical-geography/pyrenees</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/science-and-technology/biology-and-genetics/environmental-studies/environmentalism</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/medicine/divisions-diagnostics-and-procedures/medicine/socialized-medicine</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/social-sciences-and-law/political-science-and-government/united-nations/united-nations</t>
+  </si>
+  <si>
+    <t>https://www.encyclopedia.com/social-sciences-and-law/economics-business-and-labor/money-banking-and-investment/federal-reserve</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/list/5-fast-facts-about-flower-anatomy</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/story/what-did-shakespeare-sound-like</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/list/9-dickensian-diagnoses</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/story/are-dogs-really-color-blind</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/story/investigating-therapeutic-uses-for-hallucinogens</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/animal/viper-snake</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/list/10-women-who-advanced-our-understanding-of-life-on-earth</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/lifeandstyle/2018/may/14/anna-jones-recipe-cooking-lettuce</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/lifeandstyle/2018/may/07/anna-jones-toast-topping-brunch-recipes</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/lifeandstyle/2018/apr/23/anna-jones-quick-pasta-recipes-lasagne-supermarket-filled-pasta</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/lifeandstyle/2018/apr/16/anna-jones-broad-bean-recipes</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/greek-seasoning-blend.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/parades-community-table-25-kid-friendly-snack-recipes.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/three-ingredient-grape-jam.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/parades-community-table-30-delicious-desserts-to-temp-your-sweet-tooth.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/soft-boiled-eggs-with-bacon-wrapped-asparagus-soldiers.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/05/crispy-chicken-florentine-with-mozzarella.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/03/cream-cheese-banana-nut-muffins.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2017/11/glazed-eggnog-bread.html</t>
+  </si>
+  <si>
+    <t>https://www.fortheloveofcooking.net/2018/01/lemon-crumb-muffins-with-lemon-glaze.html</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/healthy/a19866004/tahini-lemon-quinoa-with-asparagus-ribbons-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/easy/a19855090/ginger-pork-and-cucumber-salad-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/easy/a19855475/pea-pesto-pappardelle-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/easy/a19855342/grilled-steak-tortilla-salad-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.goodhousekeeping.com/food-recipes/easy/a19854680/roasted-cumin-shrimp-and-asparagus-recipe/</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/technology/2009/dec/09/best-websites-internet</t>
+  </si>
+  <si>
+    <t>http://webtoptenz.com/top-10-tech-news-websites/</t>
+  </si>
+  <si>
+    <t>https://technologyschools.org/information-technology/</t>
+  </si>
+  <si>
+    <t>https://blog.storagecraft.com/best-it-sites-youre-not-reading/</t>
+  </si>
+  <si>
+    <t>https://slashdot.org/</t>
+  </si>
+  <si>
+    <t>https://www.experts-exchange.com/</t>
+  </si>
+  <si>
+    <t>http://www.laweekly.com/news/scenes-from-my-life-in-porn-2131819</t>
+  </si>
+  <si>
+    <t>http://edition.cnn.com/interactive/2014/04/opinion/sutter-change-the-list-pangolin-trafficking/index.html</t>
+  </si>
+  <si>
+    <t>https://lifehacker.com/5305094/how-to-crack-a-wi-fi-networks-wep-password-with-backtrack</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2016/04/24/magazine/icelands-water-cure.html</t>
+  </si>
+  <si>
+    <t>https://www.themarshallproject.org/2018/01/18/the-volunteer</t>
+  </si>
+  <si>
+    <t>https://www.rollingstone.com/politics/features/trump-education-secretary-betsy-devos-a-win-for-the-christian-right-w470605</t>
+  </si>
+  <si>
+    <t>http://www.janetreitman.com/articles/inside-scientology/</t>
+  </si>
+  <si>
+    <t>https://www.hakaimagazine.com/features/secret-history-bioluminescence/</t>
+  </si>
+  <si>
+    <t>https://michaelpollan.com/articles-archive/opium-made-easy/</t>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/forums/viewtopic.php?t=187871/</t>
+  </si>
+  <si>
+    <t>https://blog.openai.com/openai-charter/</t>
+  </si>
+  <si>
+    <t>https://www.shotcutapp.com/features/</t>
+  </si>
+  <si>
+    <t>https://medium.com/tech-tajawal/modern-backend-developer-in-2018-6b3f7b5f8b9</t>
+  </si>
+  <si>
+    <t>https://www.itweb.co.za/content/PmxVE7KX1NyMQY85</t>
+  </si>
+  <si>
+    <t>http://crashworks.org/if_programming_languages_were_vehicles/</t>
+  </si>
+  <si>
+    <t>https://lifehacker.com/what-i-wish-i-knew-when-i-started-my-career-as-a-softwa-1681002791</t>
+  </si>
+  <si>
+    <t>https://github.com/ErisBlastar/cplusequality</t>
+  </si>
+  <si>
+    <t>https://getpostcookie.com/blog/if-php-were-british/?utm_content=buffer8358d&amp;utm_medium=social&amp;utm_source=facebook.com&amp;utm_campaign=buffer</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/834179/wtf-is-wtf-in-webkit-code-base</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/1642028/what-is-the-operator-in-c?rq=1</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Diehard_tests</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Interrupt_storm</t>
+  </si>
+  <si>
+    <t>https://unix.stackexchange.com/questions/405783/why-does-man-print-gimme-gimme-gimme-at-0030</t>
+  </si>
+  <si>
+    <t>https://blog.codinghorror.com/</t>
+  </si>
+  <si>
+    <t>http://blog.hvidtfeldts.net/index.php/generative-art-links/</t>
+  </si>
+  <si>
+    <t>http://carlcheo.com/compsci</t>
+  </si>
+  <si>
+    <t>https://www.pornication.com/?AFNO=1-264593-2</t>
+  </si>
+  <si>
+    <t>https://www.privatefeeds.com/?AFNO=1-264593-2</t>
+  </si>
+  <si>
+    <t>https://www.sexlikereal.com/</t>
+  </si>
+  <si>
+    <t>https://www.vrsmash.com/</t>
+  </si>
+  <si>
+    <t>https://www.stasyq.com/virtualreality</t>
+  </si>
+  <si>
+    <t>https://watchmygf.cc/</t>
+  </si>
+  <si>
+    <t>https://www.iknowthatgirl.com/landing/tour5/?ats=eyJhIjoxMDc0NCwiYyI6NDQ3NDc0ODgsIm4iOjE1LCJzIjoxODEsImUiOjU5MiwicCI6NTd9</t>
+  </si>
+  <si>
+    <t>http://www.babe-lounge.com/</t>
+  </si>
+  <si>
+    <t>http://www.ebaumsworld.com/sexy/</t>
+  </si>
+  <si>
+    <t>https://www.simply-hentai.com/</t>
+  </si>
+  <si>
+    <t>http://hentaipulse.com/</t>
+  </si>
+  <si>
+    <t>http://hentaischool.com/</t>
+  </si>
+  <si>
+    <t>https://chan.sankakucomplex.com/</t>
+  </si>
+  <si>
+    <t>https://animeidhentai.com/</t>
+  </si>
+  <si>
+    <t>https://www.evilangellive.com/?AFNO=1-264593-2</t>
+  </si>
+  <si>
+    <t>http://www.tate.org.uk/context-comment/articles/work-life-studio-patternity</t>
+  </si>
+  <si>
+    <t>http://www.tate.org.uk/whats-on/tate-modern/exhibition/ey-exhibition-sonia-delaunay/delaunay-introduction</t>
+  </si>
+  <si>
+    <t>https://greatergood.berkeley.edu/article/item/why_we_make_art</t>
+  </si>
+  <si>
+    <t>https://www.britannica.com/topic/experiencing-art-1368300</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/05/18/t-magazine/fashion/castelbajac-edelman-bolle-editors-picks.html?rref=collection%2Ftimestopic%2FArt</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/05/18/arts/design/wong-ping-guggenheim-one-hand-clapping.html?rref=collection%2Ftimestopic%2FArt</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/05/18/books/review/linda-nochlin-misere.html?rref=collection%2Ftimestopic%2FArt</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/article/is-art-created-by-ai-really-art/</t>
+  </si>
+  <si>
+    <t>https://www.contempaesthetics.org/newvolume/pages/article.php?articleID=299</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/2018/5/17/17361124/state-of-decay-2-review-xbox-one-pc</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/2018/4/25/17276776/apocalipsis-review-windows-pc-mac</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/virtual-reality/2018/5/1/17284454/oculus-go-review</t>
+  </si>
+  <si>
+    <t>https://www.polygon.com/2018/4/12/17226486/god-of-war-review-ps4-2018</t>
+  </si>
+  <si>
+    <t>https://thepointsguy.com/guide/chase-sapphire-reserve-review/</t>
+  </si>
+  <si>
+    <t>https://aux.avclub.com/stephen-king-s-the-outsider-is-an-it-for-the-trump-era-1825906254</t>
+  </si>
+  <si>
+    <t>https://lifehacker.com/seven-ready-made-raspberry-pi-projects-you-can-install-1691368805</t>
+  </si>
+  <si>
+    <t>https://earther.com/lawns-are-an-ecological-disaster-1826070720</t>
+  </si>
+  <si>
+    <t>https://skillet.lifehacker.com/you-should-salt-your-summer-beverages-1826136071</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/what-booze-tastes-best-in-a-wendys-frosty-1826177345</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/imagine-being-the-snowflake-offended-by-gingerbread-pe-1826193740</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/every-refrigerator-needs-a-jar-of-pickled-okra-in-it-1825959283</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/last-call-new-way-to-waste-time-the-procrastibake-1826149556</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/what-exactly-is-air-chilled-chicken-1826144272</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/good-news-salad-fans-romaine-is-back-1826139944</t>
+  </si>
+  <si>
+    <t>https://thetakeout.com/mario-batali-under-criminal-investigation-by-nypd-1826190720</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/border-patrol-agent-questions-two-women-for-speaking-sp-1826184163</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/were-only-one-third-of-the-way-through-trumps-first-ter-1826190430</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/congressman-says-rocks-falling-into-the-sea-contribute-1826125767</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/no-seriously-fuck-the-democrats-who-voted-to-confirm-g-1826119984</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/house-democrats-line-up-to-vote-en-masse-for-totally-un-1826115862</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/gop-congressman-is-very-mad-that-people-are-talking-abo-1826036582</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/republican-candidate-gleefully-films-herself-harassing-1826134489</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/progressives-had-a-great-night-on-tuesday-1826064867</t>
+  </si>
+  <si>
+    <t>https://splinternews.com/we-asked-all-of-the-2020-democratic-frontrunners-about-1826051757</t>
+  </si>
+  <si>
+    <t>https://jalopnik.com/this-crash-between-a-2015-and-a-1998-toyota-corolla-sho-1795220332</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/lizard-climate-change-evolution</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/bird-migration-night-track</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/earth-magnetic-pole-flip</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/uranus-hydrogen-sulfide-cloud</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/surgeons-hole-cow-skull</t>
+  </si>
+  <si>
+    <t>https://www.popsci.com/diamonds-meteorites-long-lost-planet</t>
+  </si>
+  <si>
+    <t>https://blogs.scientificamerican.com/extinction-countdown/8-years-until-red-wolf-extinction/</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/article/quantum-physics-may-be-even-spookier-than-you-think/</t>
+  </si>
+  <si>
+    <t>https://www.scientificamerican.com/article/so-umm-google-duplexs-chatter-is-not-quite-human/</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180518102729.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180517142553.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180517113802.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180518105916.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180518081910.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180516162516.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180517143621.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/05/180517102236.htm</t>
+  </si>
+  <si>
+    <t>https://www.livescience.com/62618-coldest-spot-in-the-universe.html</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/animals/a20762108/green-blooded-lizards-live-with-a-pigment-that-should-kill-them/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/animals/a20759120/science-says-your-bed-is-dirtier-than-a-chimpanzees/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/archaeology/a20762222/why-was-this-babys-hand-mummified-but-not-the-rest-of-its-body/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/animals/a20758773/scientists-just-transferred-memories-from-one-creature-to-another/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20735500/nasa-administrator-jim-bridenstine-i-believe-fully-in-climate-change/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20735718/selfies-hawaii-volcano-eruption-2018/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/energy/a20732996/bitcoin-electricity-usage-doubled/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/energy/a20730787/pressure-proton-neutron-star/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20722931/cfc-spikes-secret-manufacture/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20705896/arctic-sea-ice-holds-clues-to-the-strength-of-the-roman-empire/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/environment/a20666474/hawaii-volcano-kilauea-history-facts/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/a20066496/household-items-stop-bullet/</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/science/animals/a20667736/jumping-spider</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.popularmechanics.com/science/animals/a20674994/these-mating-male-beetles-are-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-gay-just-incompetent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://www.popularmechanics.com/science/animals/a20674816/this-secretive-harvard-startup-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-trying-to-reverse-aging/</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.atlasobscura.com/articles/found-first-record-of-rare-tiny-deer-in-vietnam?utm_source=facebook.com&amp;utm_medium=atlas-page</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Audio_signal_processing</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Digital_signal_(signal_processing)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Floating-point_arithmetic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wolfram_Mathematica</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Computer_algebra_system</t>
+  </si>
+  <si>
+    <t>https://filmora.wondershare.com/video-editor/free-video-editing-software-windows.html</t>
+  </si>
+  <si>
+    <t>https://www.pcmag.com/article2/0,2817,2397215,00.asp</t>
+  </si>
+  <si>
+    <t>https://beebom.com/best-audio-editing-software/</t>
+  </si>
+  <si>
+    <t>https://www.musicianonamission.com/best-free-audio-editor/</t>
+  </si>
+  <si>
+    <t>https://boingboing.net/2017/09/05/how-to-decode-the-images-on-th.html</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/2568673/inverse-dictionary-lookup-in-python</t>
+  </si>
+  <si>
+    <t>http://net-informations.com/faq/default.htm</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/politics/challenges-have-dogged-obamas-health-plan-since-2010/2013/11/02/453fba42-426b-11e3-a624-41d661b0bb78_print.html?</t>
+  </si>
+  <si>
+    <t>http://nymag.com/daily/intelligencer/2013/11/how-i-learned-to-love-twitter.html</t>
+  </si>
+  <si>
+    <t>https://www.theawl.com/2015/12/access-denied/</t>
+  </si>
+  <si>
+    <t>https://www.vqronline.org/essays-articles/2016/07/mysterious-american-cat</t>
+  </si>
+  <si>
+    <t>https://medium.com/content-uneditable/circular-dependencies-in-javascript-a-k-a-coding-is-not-a-rock-paper-scissors-game-9c2a9eccd4bc</t>
+  </si>
+  <si>
+    <t>https://medium.com/javascript-scene/inside-the-dev-team-death-spiral-6a7ea255467b</t>
+  </si>
+  <si>
+    <t>https://qz.com/1285418/giant-predatory-worms-from-asia-are-invading-france/?utm_source=parAO</t>
+  </si>
+  <si>
+    <t>https://sexier.com/live-sex-chats/?queryid=138</t>
+  </si>
+  <si>
+    <t>https://vividcams.com/?AFNO=MjAyOTEzLjU0LjQ2LjEwMi4xOS4wLjAuMC4w&amp;mobile=0&amp;nats=MjAyOTEzLjU0LjQ2LjEwMi4xOS4wLjAuMC4w&amp;strack=0&amp;switched=1</t>
+  </si>
+  <si>
+    <t>https://cams.com/go/g1424946-pct</t>
+  </si>
+  <si>
+    <t>http://myporncams.com/</t>
+  </si>
+  <si>
+    <t>https://livecam-experts.com/</t>
+  </si>
+  <si>
+    <t>https://www.xlovecam.com/en/</t>
+  </si>
+  <si>
+    <t>https://www.flirt4free.com/live/girls/</t>
+  </si>
+  <si>
+    <t>https://www.pornication.com/?AFNO=1-247331-2-2-bestxxxsites</t>
+  </si>
+  <si>
+    <t>https://www.myfreecams.com/?cam=30546&amp;omp=2&amp;track=102c530982c0f2496e5886e66ee166&amp;skip_oapopup=1&amp;r=0&amp;mfwd=1#{model}</t>
+  </si>
+  <si>
+    <t>https://www.privatefeeds.com/?AFNO=1-247331-2-bestxxxsites</t>
+  </si>
+  <si>
+    <t>https://www.streamate.com/?AFNO=1-0-642160-356079&amp;DF=0&amp;UHNSMTY=303</t>
+  </si>
+  <si>
+    <t>https://www.evilangellive.com/?AFNO=1-247331-2-2-bestxxxsites</t>
+  </si>
+  <si>
+    <t>https://www.watchmygf.me/</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/news/science-environment-44305663</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/science/2018/may/30/speculative-biology-understanding-the-past-and-predicting-our-future</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +1688,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -146,7 +1738,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F507"/>
+  <dimension ref="A1:F523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B807"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,77 +2152,4100 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="3"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="3"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="3"/>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="4"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>176</v>
+      </c>
+      <c r="B194" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>246</v>
+      </c>
+      <c r="B240" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>250</v>
+      </c>
+      <c r="B244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+      <c r="B245" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>257</v>
+      </c>
+      <c r="B251" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>258</v>
+      </c>
+      <c r="B252" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>259</v>
+      </c>
+      <c r="B253" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>260</v>
+      </c>
+      <c r="B254" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>261</v>
+      </c>
+      <c r="B255" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>262</v>
+      </c>
+      <c r="B256" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>263</v>
+      </c>
+      <c r="B257" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>264</v>
+      </c>
+      <c r="B258" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>265</v>
+      </c>
+      <c r="B259" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>266</v>
+      </c>
+      <c r="B260" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>267</v>
+      </c>
+      <c r="B261" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>268</v>
+      </c>
+      <c r="B262" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>269</v>
+      </c>
+      <c r="B263" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>271</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>272</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>273</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>274</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>275</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>276</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>277</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>278</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>280</v>
+      </c>
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>281</v>
+      </c>
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>285</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>286</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>287</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>288</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>289</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>290</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>291</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>292</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>293</v>
+      </c>
+      <c r="B287" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>295</v>
+      </c>
+      <c r="B289" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>296</v>
+      </c>
+      <c r="B290" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>297</v>
+      </c>
+      <c r="B291" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>298</v>
+      </c>
+      <c r="B292" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>299</v>
+      </c>
+      <c r="B293" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>300</v>
+      </c>
+      <c r="B294" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>301</v>
+      </c>
+      <c r="B295" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>302</v>
+      </c>
+      <c r="B296" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>303</v>
+      </c>
+      <c r="B297" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>304</v>
+      </c>
+      <c r="B298" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>305</v>
+      </c>
+      <c r="B299" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>306</v>
+      </c>
+      <c r="B300" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>308</v>
+      </c>
+      <c r="B302" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>309</v>
+      </c>
+      <c r="B303" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>310</v>
+      </c>
+      <c r="B304" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>311</v>
+      </c>
+      <c r="B305" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>312</v>
+      </c>
+      <c r="B306" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>313</v>
+      </c>
+      <c r="B307" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>314</v>
+      </c>
+      <c r="B308" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>315</v>
+      </c>
+      <c r="B309" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>316</v>
+      </c>
+      <c r="B310" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>317</v>
+      </c>
+      <c r="B311" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>318</v>
+      </c>
+      <c r="B312" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>319</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>320</v>
+      </c>
+      <c r="B314" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>321</v>
+      </c>
+      <c r="B315" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>322</v>
+      </c>
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>323</v>
+      </c>
+      <c r="B317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>324</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>325</v>
+      </c>
+      <c r="B319" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>326</v>
+      </c>
+      <c r="B320" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>327</v>
+      </c>
+      <c r="B321" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>328</v>
+      </c>
+      <c r="B322" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>329</v>
+      </c>
+      <c r="B323" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>330</v>
+      </c>
+      <c r="B324" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>331</v>
+      </c>
+      <c r="B325" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>332</v>
+      </c>
+      <c r="B326" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>333</v>
+      </c>
+      <c r="B327" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>334</v>
+      </c>
+      <c r="B328" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>335</v>
+      </c>
+      <c r="B329" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>336</v>
+      </c>
+      <c r="B330" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>337</v>
+      </c>
+      <c r="B331" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>338</v>
+      </c>
+      <c r="B332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>339</v>
+      </c>
+      <c r="B333" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>340</v>
+      </c>
+      <c r="B334" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>341</v>
+      </c>
+      <c r="B335" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>342</v>
+      </c>
+      <c r="B336" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>343</v>
+      </c>
+      <c r="B337" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>344</v>
+      </c>
+      <c r="B338" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>345</v>
+      </c>
+      <c r="B339" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>347</v>
+      </c>
+      <c r="B340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>348</v>
+      </c>
+      <c r="B341" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>346</v>
+      </c>
+      <c r="B342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>349</v>
+      </c>
+      <c r="B343" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>350</v>
+      </c>
+      <c r="B344" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>351</v>
+      </c>
+      <c r="B345" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>388</v>
+      </c>
+      <c r="B346" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>389</v>
+      </c>
+      <c r="B347" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>390</v>
+      </c>
+      <c r="B348" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>352</v>
+      </c>
+      <c r="B349" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>353</v>
+      </c>
+      <c r="B350" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>354</v>
+      </c>
+      <c r="B351" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>355</v>
+      </c>
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>356</v>
+      </c>
+      <c r="B353" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>357</v>
+      </c>
+      <c r="B354" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>358</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>359</v>
+      </c>
+      <c r="B356" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>360</v>
+      </c>
+      <c r="B357" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>361</v>
+      </c>
+      <c r="B358" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>362</v>
+      </c>
+      <c r="B359" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>363</v>
+      </c>
+      <c r="B360" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>364</v>
+      </c>
+      <c r="B361" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>365</v>
+      </c>
+      <c r="B362" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>366</v>
+      </c>
+      <c r="B363" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>367</v>
+      </c>
+      <c r="B364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>368</v>
+      </c>
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>369</v>
+      </c>
+      <c r="B366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>371</v>
+      </c>
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>373</v>
+      </c>
+      <c r="B369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>374</v>
+      </c>
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>375</v>
+      </c>
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>376</v>
+      </c>
+      <c r="B373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>377</v>
+      </c>
+      <c r="B374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>378</v>
+      </c>
+      <c r="B375" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>379</v>
+      </c>
+      <c r="B376" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>381</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>382</v>
+      </c>
+      <c r="B379" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>383</v>
+      </c>
+      <c r="B380" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>384</v>
+      </c>
+      <c r="B381" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>385</v>
+      </c>
+      <c r="B382" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>89</v>
+      </c>
+      <c r="B383" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>392</v>
+      </c>
+      <c r="B384" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>393</v>
+      </c>
+      <c r="B385" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>391</v>
+      </c>
+      <c r="B388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>394</v>
+      </c>
+      <c r="B389" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>395</v>
+      </c>
+      <c r="B390" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>396</v>
+      </c>
+      <c r="B391" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>397</v>
+      </c>
+      <c r="B392" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>398</v>
+      </c>
+      <c r="B393" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>399</v>
+      </c>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>400</v>
+      </c>
+      <c r="B395" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>401</v>
+      </c>
+      <c r="B396" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>402</v>
+      </c>
+      <c r="B397" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>403</v>
+      </c>
+      <c r="B398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>404</v>
+      </c>
+      <c r="B399" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>405</v>
+      </c>
+      <c r="B400" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>406</v>
+      </c>
+      <c r="B401" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>407</v>
+      </c>
+      <c r="B402" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>408</v>
+      </c>
+      <c r="B403" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>409</v>
+      </c>
+      <c r="B404" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>410</v>
+      </c>
+      <c r="B405" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>411</v>
+      </c>
+      <c r="B406" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>412</v>
+      </c>
+      <c r="B407" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>413</v>
+      </c>
+      <c r="B408" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>414</v>
+      </c>
+      <c r="B409" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>415</v>
+      </c>
+      <c r="B410" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>416</v>
+      </c>
+      <c r="B411" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>417</v>
+      </c>
+      <c r="B412" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>418</v>
+      </c>
+      <c r="B413" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>419</v>
+      </c>
+      <c r="B414" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>420</v>
+      </c>
+      <c r="B415" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>421</v>
+      </c>
+      <c r="B416" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>422</v>
+      </c>
+      <c r="B417" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>423</v>
+      </c>
+      <c r="B418" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>424</v>
+      </c>
+      <c r="B419" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>425</v>
+      </c>
+      <c r="B420" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>426</v>
+      </c>
+      <c r="B421" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>427</v>
+      </c>
+      <c r="B422" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>428</v>
+      </c>
+      <c r="B423" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>429</v>
+      </c>
+      <c r="B424" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>430</v>
+      </c>
+      <c r="B425" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>431</v>
+      </c>
+      <c r="B426" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>432</v>
+      </c>
+      <c r="B427" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>433</v>
+      </c>
+      <c r="B428" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>434</v>
+      </c>
+      <c r="B429" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>435</v>
+      </c>
+      <c r="B430" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>436</v>
+      </c>
+      <c r="B431" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>437</v>
+      </c>
+      <c r="B432" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>438</v>
+      </c>
+      <c r="B433" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>439</v>
+      </c>
+      <c r="B434" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>440</v>
+      </c>
+      <c r="B435" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>441</v>
+      </c>
+      <c r="B436" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>442</v>
+      </c>
+      <c r="B437" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>443</v>
+      </c>
+      <c r="B438" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>444</v>
+      </c>
+      <c r="B439" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>445</v>
+      </c>
+      <c r="B440" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>446</v>
+      </c>
+      <c r="B441" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>447</v>
+      </c>
+      <c r="B442" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>448</v>
+      </c>
+      <c r="B443" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>449</v>
+      </c>
+      <c r="B444" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>450</v>
+      </c>
+      <c r="B445" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>451</v>
+      </c>
+      <c r="B446" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>452</v>
+      </c>
+      <c r="B447" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>453</v>
+      </c>
+      <c r="B448" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>454</v>
+      </c>
+      <c r="B449" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>455</v>
+      </c>
+      <c r="B450" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>456</v>
+      </c>
+      <c r="B451" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>457</v>
+      </c>
+      <c r="B452" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>458</v>
+      </c>
+      <c r="B453" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>459</v>
+      </c>
+      <c r="B454" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>460</v>
+      </c>
+      <c r="B455" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>461</v>
+      </c>
+      <c r="B456" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>462</v>
+      </c>
+      <c r="B457" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>463</v>
+      </c>
+      <c r="B458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>464</v>
+      </c>
+      <c r="B459" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>465</v>
+      </c>
+      <c r="B460" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>466</v>
+      </c>
+      <c r="B461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>467</v>
+      </c>
+      <c r="B462" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>468</v>
+      </c>
+      <c r="B463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>469</v>
+      </c>
+      <c r="B464" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>470</v>
+      </c>
+      <c r="B465" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>471</v>
+      </c>
+      <c r="B466" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>472</v>
+      </c>
+      <c r="B467" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>473</v>
+      </c>
+      <c r="B468" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>474</v>
+      </c>
+      <c r="B469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>475</v>
+      </c>
+      <c r="B470" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>476</v>
+      </c>
+      <c r="B471" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>477</v>
+      </c>
+      <c r="B472" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>478</v>
+      </c>
+      <c r="B473" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>479</v>
+      </c>
+      <c r="B474" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>480</v>
+      </c>
+      <c r="B475" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>481</v>
+      </c>
+      <c r="B476" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>482</v>
+      </c>
+      <c r="B477" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>483</v>
+      </c>
+      <c r="B478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>484</v>
+      </c>
+      <c r="B479" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>485</v>
+      </c>
+      <c r="B480" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>486</v>
+      </c>
+      <c r="B481" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>487</v>
+      </c>
+      <c r="B482" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>488</v>
+      </c>
+      <c r="B483" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>489</v>
+      </c>
+      <c r="B484" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>490</v>
+      </c>
+      <c r="B485" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B486" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B487" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B488" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>494</v>
+      </c>
+      <c r="B489" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>495</v>
+      </c>
+      <c r="B490" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>496</v>
+      </c>
+      <c r="B491" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>497</v>
+      </c>
+      <c r="B492" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>498</v>
+      </c>
+      <c r="B493" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>499</v>
+      </c>
+      <c r="B494" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>500</v>
+      </c>
+      <c r="B495" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>501</v>
+      </c>
+      <c r="B496" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>502</v>
+      </c>
+      <c r="B497" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>503</v>
+      </c>
+      <c r="B498" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>504</v>
+      </c>
+      <c r="B499" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>505</v>
+      </c>
+      <c r="B500" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>506</v>
+      </c>
+      <c r="B501" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>507</v>
+      </c>
+      <c r="B502" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>508</v>
+      </c>
+      <c r="B503" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B504" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>510</v>
+      </c>
+      <c r="B505" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>511</v>
+      </c>
+      <c r="B506" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B507" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>513</v>
+      </c>
+      <c r="B508" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>514</v>
+      </c>
+      <c r="B509" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>515</v>
+      </c>
+      <c r="B510" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>516</v>
+      </c>
+      <c r="B511" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>517</v>
+      </c>
+      <c r="B512" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>519</v>
+      </c>
+      <c r="B513" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>518</v>
+      </c>
+      <c r="B514" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>520</v>
+      </c>
+      <c r="B515" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>521</v>
+      </c>
+      <c r="B516" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>522</v>
+      </c>
+      <c r="B517" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>523</v>
+      </c>
+      <c r="B518" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>524</v>
+      </c>
+      <c r="B519" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>525</v>
+      </c>
+      <c r="B520" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>526</v>
+      </c>
+      <c r="B521" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>527</v>
+      </c>
+      <c r="B522" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>528</v>
+      </c>
+      <c r="B523" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A60" r:id="rId1"/>
+    <hyperlink ref="A59" r:id="rId2"/>
+    <hyperlink ref="A58" r:id="rId3"/>
+    <hyperlink ref="A57" r:id="rId4"/>
+    <hyperlink ref="A51" r:id="rId5"/>
+    <hyperlink ref="A53" r:id="rId6"/>
+    <hyperlink ref="A55" r:id="rId7"/>
+    <hyperlink ref="A54" r:id="rId8"/>
+    <hyperlink ref="A50" r:id="rId9"/>
+    <hyperlink ref="A30" r:id="rId10"/>
+    <hyperlink ref="A31" r:id="rId11"/>
+    <hyperlink ref="A29" r:id="rId12"/>
+    <hyperlink ref="A28" r:id="rId13"/>
+    <hyperlink ref="A27" r:id="rId14"/>
+    <hyperlink ref="A26" r:id="rId15"/>
+    <hyperlink ref="A12" r:id="rId16"/>
+    <hyperlink ref="A88" r:id="rId17"/>
+    <hyperlink ref="A504" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="517">
   <si>
     <t>link</t>
   </si>
@@ -500,9 +500,6 @@
     <t>https://www.nature.com/articles/s41598-018-25344-5</t>
   </si>
   <si>
-    <t>http://www.udel.edu/udaily/2018/april/xiaopeng-ji-napping-neurocognitive-function/</t>
-  </si>
-  <si>
     <t>https://news.umich.edu/everything-repellent-coating-could-kidproof-phones-homes/</t>
   </si>
   <si>
@@ -539,15 +536,9 @@
     <t>http://www.sciencemag.org/news/2018/01/superblack-bird-paradise-feathers-absorb-9995-light</t>
   </si>
   <si>
-    <t>https://www.eurekalert.org/pub_releases/2018-04/nu-van042718.php</t>
-  </si>
-  <si>
     <t>https://news.rutgers.edu/solar-powered-sea-slugs-shed-light-search-perpetual-green-energy/20180502#.Wu2MWIp_Xxx</t>
   </si>
   <si>
-    <t>http://news.berkeley.edu/2018/04/16/thin-film-converts-heat-from-electronics-into-energy/</t>
-  </si>
-  <si>
     <t>https://www.frontiersin.org/articles/10.3389/fmars.2018.00142/full</t>
   </si>
   <si>
@@ -998,9 +989,6 @@
     <t>https://en.wikipedia.org/wiki/Physics</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Astronomy</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Medicine</t>
   </si>
   <si>
@@ -1163,9 +1151,6 @@
     <t>https://www.goodhousekeeping.com/food-recipes/easy/a19854680/roasted-cumin-shrimp-and-asparagus-recipe/</t>
   </si>
   <si>
-    <t>https://www.theguardian.com/technology/2009/dec/09/best-websites-internet</t>
-  </si>
-  <si>
     <t>http://webtoptenz.com/top-10-tech-news-websites/</t>
   </si>
   <si>
@@ -1235,21 +1220,12 @@
     <t>https://getpostcookie.com/blog/if-php-were-british/?utm_content=buffer8358d&amp;utm_medium=social&amp;utm_source=facebook.com&amp;utm_campaign=buffer</t>
   </si>
   <si>
-    <t>https://stackoverflow.com/questions/834179/wtf-is-wtf-in-webkit-code-base</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/1642028/what-is-the-operator-in-c?rq=1</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Diehard_tests</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Interrupt_storm</t>
   </si>
   <si>
-    <t>https://unix.stackexchange.com/questions/405783/why-does-man-print-gimme-gimme-gimme-at-0030</t>
-  </si>
-  <si>
     <t>https://blog.codinghorror.com/</t>
   </si>
   <si>
@@ -1467,9 +1443,6 @@
   </si>
   <si>
     <t>https://www.popularmechanics.com/science/animals/a20759120/science-says-your-bed-is-dirtier-than-a-chimpanzees/</t>
-  </si>
-  <si>
-    <t>https://www.popularmechanics.com/science/archaeology/a20762222/why-was-this-babys-hand-mummified-but-not-the-rest-of-its-body/</t>
   </si>
   <si>
     <t>https://www.popularmechanics.com/science/animals/a20758773/scientists-just-transferred-memories-from-one-creature-to-another/</t>
@@ -1573,9 +1546,6 @@
     <t>https://en.wikipedia.org/wiki/Wolfram_Mathematica</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Computer_algebra_system</t>
-  </si>
-  <si>
     <t>https://filmora.wondershare.com/video-editor/free-video-editing-software-windows.html</t>
   </si>
   <si>
@@ -1598,12 +1568,6 @@
   </si>
   <si>
     <t>https://www.washingtonpost.com/politics/challenges-have-dogged-obamas-health-plan-since-2010/2013/11/02/453fba42-426b-11e3-a624-41d661b0bb78_print.html?</t>
-  </si>
-  <si>
-    <t>http://nymag.com/daily/intelligencer/2013/11/how-i-learned-to-love-twitter.html</t>
-  </si>
-  <si>
-    <t>https://www.theawl.com/2015/12/access-denied/</t>
   </si>
   <si>
     <t>https://www.vqronline.org/essays-articles/2016/07/mysterious-american-cat</t>
@@ -2024,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A504" sqref="A503:B504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,17 +3212,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -3266,7 +3222,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -3274,7 +3230,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -3282,7 +3238,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -3290,7 +3246,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
         <v>69</v>
@@ -3298,7 +3254,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
         <v>27</v>
@@ -3306,7 +3262,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
         <v>27</v>
@@ -3314,7 +3270,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160" t="s">
         <v>69</v>
@@ -3322,7 +3278,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -3330,7 +3286,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -3338,7 +3294,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -3346,39 +3302,23 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>171</v>
-      </c>
-      <c r="B165" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>173</v>
-      </c>
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
         <v>69</v>
@@ -3386,7 +3326,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
         <v>40</v>
@@ -3394,7 +3334,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -3402,7 +3342,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -3410,7 +3350,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -3418,7 +3358,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
         <v>40</v>
@@ -3426,7 +3366,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
         <v>40</v>
@@ -3434,7 +3374,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B175" t="s">
         <v>40</v>
@@ -3442,7 +3382,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B176" t="s">
         <v>40</v>
@@ -3450,7 +3390,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B177" t="s">
         <v>40</v>
@@ -3458,7 +3398,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B178" t="s">
         <v>40</v>
@@ -3466,7 +3406,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
         <v>40</v>
@@ -3474,7 +3414,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
         <v>40</v>
@@ -3482,7 +3422,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B181" t="s">
         <v>40</v>
@@ -3490,7 +3430,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B182" t="s">
         <v>40</v>
@@ -3498,7 +3438,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
         <v>40</v>
@@ -3506,7 +3446,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B184" t="s">
         <v>40</v>
@@ -3514,7 +3454,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B185" t="s">
         <v>40</v>
@@ -3522,7 +3462,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
         <v>40</v>
@@ -3530,7 +3470,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
         <v>40</v>
@@ -3538,7 +3478,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B188" t="s">
         <v>40</v>
@@ -3546,7 +3486,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B189" t="s">
         <v>40</v>
@@ -3554,7 +3494,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B190" t="s">
         <v>40</v>
@@ -3562,7 +3502,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B191" t="s">
         <v>27</v>
@@ -3570,7 +3510,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B192" t="s">
         <v>27</v>
@@ -3578,7 +3518,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B193" t="s">
         <v>27</v>
@@ -3586,7 +3526,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B194" t="s">
         <v>27</v>
@@ -3594,7 +3534,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -3602,7 +3542,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
         <v>27</v>
@@ -3610,7 +3550,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -3618,7 +3558,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
         <v>27</v>
@@ -3626,7 +3566,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B199" t="s">
         <v>27</v>
@@ -3634,7 +3574,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s">
         <v>27</v>
@@ -3642,7 +3582,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B201" t="s">
         <v>27</v>
@@ -3650,7 +3590,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
         <v>27</v>
@@ -3658,7 +3598,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B203" t="s">
         <v>27</v>
@@ -3666,7 +3606,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s">
         <v>27</v>
@@ -3674,7 +3614,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
         <v>27</v>
@@ -3682,7 +3622,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
         <v>27</v>
@@ -3690,7 +3630,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B207" t="s">
         <v>27</v>
@@ -3698,7 +3638,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B208" t="s">
         <v>13</v>
@@ -3706,7 +3646,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B209" t="s">
         <v>13</v>
@@ -3714,7 +3654,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B210" t="s">
         <v>13</v>
@@ -3722,7 +3662,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B211" t="s">
         <v>13</v>
@@ -3730,7 +3670,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s">
         <v>13</v>
@@ -3738,7 +3678,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B213" t="s">
         <v>13</v>
@@ -3746,7 +3686,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s">
         <v>13</v>
@@ -3754,7 +3694,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -3762,7 +3702,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -3770,7 +3710,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -3778,7 +3718,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -3786,7 +3726,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -3794,7 +3734,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -3802,7 +3742,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -3810,7 +3750,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B222" t="s">
         <v>40</v>
@@ -3818,7 +3758,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
@@ -3826,7 +3766,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
@@ -3834,7 +3774,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B225" t="s">
         <v>40</v>
@@ -3842,7 +3782,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
@@ -3850,7 +3790,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -3858,7 +3798,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -3866,7 +3806,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
@@ -3874,7 +3814,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -3882,7 +3822,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B231" t="s">
         <v>40</v>
@@ -3890,7 +3830,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B232" t="s">
         <v>40</v>
@@ -3898,7 +3838,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -3906,7 +3846,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -3914,7 +3854,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
@@ -3922,7 +3862,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B236" t="s">
         <v>13</v>
@@ -3930,7 +3870,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
         <v>13</v>
@@ -3938,7 +3878,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B238" t="s">
         <v>13</v>
@@ -3946,151 +3886,151 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B257" t="s">
         <v>27</v>
@@ -4098,7 +4038,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B258" t="s">
         <v>27</v>
@@ -4106,7 +4046,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B259" t="s">
         <v>27</v>
@@ -4114,23 +4054,23 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B262" t="s">
         <v>27</v>
@@ -4138,23 +4078,23 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B265" t="s">
         <v>13</v>
@@ -4162,7 +4102,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B266" t="s">
         <v>13</v>
@@ -4170,7 +4110,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B267" t="s">
         <v>13</v>
@@ -4178,7 +4118,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B268" t="s">
         <v>13</v>
@@ -4186,7 +4126,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B269" t="s">
         <v>13</v>
@@ -4194,7 +4134,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B270" t="s">
         <v>13</v>
@@ -4202,7 +4142,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B271" t="s">
         <v>13</v>
@@ -4210,7 +4150,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B272" t="s">
         <v>13</v>
@@ -4218,7 +4158,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B273" t="s">
         <v>13</v>
@@ -4226,7 +4166,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B274" t="s">
         <v>11</v>
@@ -4234,7 +4174,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B275" t="s">
         <v>11</v>
@@ -4242,7 +4182,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B276" t="s">
         <v>13</v>
@@ -4250,15 +4190,15 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B278" t="s">
         <v>13</v>
@@ -4266,7 +4206,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B279" t="s">
         <v>13</v>
@@ -4274,7 +4214,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B280" t="s">
         <v>11</v>
@@ -4282,7 +4222,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B281" t="s">
         <v>11</v>
@@ -4290,7 +4230,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B282" t="s">
         <v>3</v>
@@ -4298,7 +4238,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B283" t="s">
         <v>11</v>
@@ -4306,7 +4246,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B284" t="s">
         <v>11</v>
@@ -4314,7 +4254,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B285" t="s">
         <v>11</v>
@@ -4322,7 +4262,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B286" t="s">
         <v>11</v>
@@ -4330,103 +4270,103 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B299" t="s">
         <v>25</v>
@@ -4434,7 +4374,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B300" t="s">
         <v>25</v>
@@ -4442,7 +4382,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B301" t="s">
         <v>25</v>
@@ -4450,7 +4390,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B302" t="s">
         <v>25</v>
@@ -4458,7 +4398,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B303" t="s">
         <v>25</v>
@@ -4466,7 +4406,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B304" t="s">
         <v>25</v>
@@ -4474,7 +4414,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B305" t="s">
         <v>69</v>
@@ -4482,7 +4422,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B306" t="s">
         <v>69</v>
@@ -4490,7 +4430,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B307" t="s">
         <v>69</v>
@@ -4498,7 +4438,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B308" t="s">
         <v>69</v>
@@ -4506,7 +4446,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B309" t="s">
         <v>69</v>
@@ -4514,31 +4454,31 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B313" t="s">
         <v>3</v>
@@ -4546,7 +4486,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B314" t="s">
         <v>11</v>
@@ -4554,7 +4494,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B315" t="s">
         <v>11</v>
@@ -4562,7 +4502,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B316" t="s">
         <v>3</v>
@@ -4570,23 +4510,15 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B317" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>324</v>
-      </c>
-      <c r="B318" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B319" t="s">
         <v>27</v>
@@ -4594,7 +4526,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B320" t="s">
         <v>27</v>
@@ -4602,7 +4534,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B321" t="s">
         <v>27</v>
@@ -4610,7 +4542,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B322" t="s">
         <v>27</v>
@@ -4618,7 +4550,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B323" t="s">
         <v>25</v>
@@ -4626,7 +4558,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B324" t="s">
         <v>25</v>
@@ -4634,7 +4566,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B325" t="s">
         <v>25</v>
@@ -4642,7 +4574,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B326" t="s">
         <v>25</v>
@@ -4650,7 +4582,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B327" t="s">
         <v>25</v>
@@ -4658,7 +4590,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B328" t="s">
         <v>25</v>
@@ -4666,7 +4598,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B329" t="s">
         <v>25</v>
@@ -4674,7 +4606,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B330" t="s">
         <v>25</v>
@@ -4682,7 +4614,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B331" t="s">
         <v>25</v>
@@ -4690,7 +4622,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B332" t="s">
         <v>25</v>
@@ -4698,7 +4630,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B333" t="s">
         <v>25</v>
@@ -4706,7 +4638,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B334" t="s">
         <v>25</v>
@@ -4714,7 +4646,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B335" t="s">
         <v>25</v>
@@ -4722,7 +4654,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B336" t="s">
         <v>25</v>
@@ -4730,7 +4662,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B337" t="s">
         <v>25</v>
@@ -4738,7 +4670,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B338" t="s">
         <v>25</v>
@@ -4746,7 +4678,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B339" t="s">
         <v>25</v>
@@ -4754,7 +4686,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B340" t="s">
         <v>3</v>
@@ -4762,7 +4694,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B341" t="s">
         <v>27</v>
@@ -4770,7 +4702,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B342" t="s">
         <v>3</v>
@@ -4778,7 +4710,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B343" t="s">
         <v>69</v>
@@ -4786,7 +4718,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B344" t="s">
         <v>69</v>
@@ -4794,7 +4726,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B345" t="s">
         <v>27</v>
@@ -4802,7 +4734,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B346" t="s">
         <v>69</v>
@@ -4810,7 +4742,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B347" t="s">
         <v>40</v>
@@ -4818,7 +4750,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B348" t="s">
         <v>40</v>
@@ -4826,7 +4758,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B349" t="s">
         <v>40</v>
@@ -4834,7 +4766,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B350" t="s">
         <v>40</v>
@@ -4842,7 +4774,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B351" t="s">
         <v>69</v>
@@ -4850,7 +4782,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B352" t="s">
         <v>3</v>
@@ -4858,7 +4790,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B353" t="s">
         <v>27</v>
@@ -4866,7 +4798,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B354" t="s">
         <v>69</v>
@@ -4874,7 +4806,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B355" t="s">
         <v>27</v>
@@ -4882,7 +4814,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B356" t="s">
         <v>69</v>
@@ -4890,7 +4822,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B357" t="s">
         <v>69</v>
@@ -4898,7 +4830,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B358" t="s">
         <v>15</v>
@@ -4906,7 +4838,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B359" t="s">
         <v>15</v>
@@ -4914,7 +4846,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B360" t="s">
         <v>15</v>
@@ -4922,7 +4854,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -4930,7 +4862,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B362" t="s">
         <v>15</v>
@@ -4938,7 +4870,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -4946,7 +4878,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B364" t="s">
         <v>15</v>
@@ -4954,7 +4886,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -4962,7 +4894,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B366" t="s">
         <v>15</v>
@@ -4970,7 +4902,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B367" t="s">
         <v>15</v>
@@ -4978,7 +4910,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B368" t="s">
         <v>15</v>
@@ -4986,7 +4918,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B369" t="s">
         <v>15</v>
@@ -4994,7 +4926,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B370" t="s">
         <v>15</v>
@@ -5002,7 +4934,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B371" t="s">
         <v>15</v>
@@ -5010,7 +4942,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B372" t="s">
         <v>15</v>
@@ -5018,7 +4950,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B373" t="s">
         <v>15</v>
@@ -5026,7 +4958,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B374" t="s">
         <v>15</v>
@@ -5034,23 +4966,15 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B375" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>379</v>
-      </c>
-      <c r="B376" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B377" t="s">
         <v>13</v>
@@ -5058,7 +4982,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B378" t="s">
         <v>13</v>
@@ -5066,7 +4990,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B379" t="s">
         <v>13</v>
@@ -5074,7 +4998,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
         <v>11</v>
@@ -5082,7 +5006,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B381" t="s">
         <v>13</v>
@@ -5090,7 +5014,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B382" t="s">
         <v>25</v>
@@ -5106,7 +5030,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B384" t="s">
         <v>69</v>
@@ -5114,7 +5038,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B385" t="s">
         <v>27</v>
@@ -5122,7 +5046,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B386" t="s">
         <v>69</v>
@@ -5130,7 +5054,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B387" t="s">
         <v>13</v>
@@ -5138,7 +5062,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B388" t="s">
         <v>3</v>
@@ -5146,7 +5070,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B389" t="s">
         <v>13</v>
@@ -5154,7 +5078,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B390" t="s">
         <v>13</v>
@@ -5162,7 +5086,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B391" t="s">
         <v>13</v>
@@ -5170,7 +5094,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B392" t="s">
         <v>13</v>
@@ -5178,7 +5102,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B393" t="s">
         <v>11</v>
@@ -5186,7 +5110,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B394" t="s">
         <v>13</v>
@@ -5194,7 +5118,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B395" t="s">
         <v>13</v>
@@ -5202,7 +5126,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B396" t="s">
         <v>13</v>
@@ -5210,31 +5134,15 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>403</v>
-      </c>
-      <c r="B398" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>404</v>
-      </c>
-      <c r="B399" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B400" t="s">
         <v>13</v>
@@ -5242,23 +5150,15 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>407</v>
-      </c>
-      <c r="B402" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B403" t="s">
         <v>13</v>
@@ -5266,7 +5166,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B404" t="s">
         <v>13</v>
@@ -5274,7 +5174,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B405" t="s">
         <v>13</v>
@@ -5282,7 +5182,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B406" t="s">
         <v>25</v>
@@ -5290,7 +5190,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B407" t="s">
         <v>25</v>
@@ -5298,7 +5198,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B408" t="s">
         <v>25</v>
@@ -5306,7 +5206,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B409" t="s">
         <v>25</v>
@@ -5314,7 +5214,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B410" t="s">
         <v>25</v>
@@ -5322,7 +5222,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B411" t="s">
         <v>25</v>
@@ -5330,7 +5230,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B412" t="s">
         <v>25</v>
@@ -5338,7 +5238,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B413" t="s">
         <v>25</v>
@@ -5346,7 +5246,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B414" t="s">
         <v>25</v>
@@ -5354,7 +5254,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B415" t="s">
         <v>25</v>
@@ -5362,7 +5262,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B416" t="s">
         <v>25</v>
@@ -5370,7 +5270,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B417" t="s">
         <v>25</v>
@@ -5378,7 +5278,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B418" t="s">
         <v>25</v>
@@ -5386,7 +5286,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B419" t="s">
         <v>25</v>
@@ -5394,7 +5294,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B420" t="s">
         <v>25</v>
@@ -5402,63 +5302,63 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B421" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B422" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B423" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B424" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B425" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B426" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B427" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B428" t="s">
         <v>11</v>
@@ -5466,47 +5366,47 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B429" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B430" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B431" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B432" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B433" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B434" t="s">
         <v>11</v>
@@ -5514,15 +5414,15 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B435" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B436" t="s">
         <v>13</v>
@@ -5530,7 +5430,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B437" t="s">
         <v>69</v>
@@ -5538,7 +5438,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B438" t="s">
         <v>15</v>
@@ -5546,7 +5446,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B439" t="s">
         <v>15</v>
@@ -5554,7 +5454,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B440" t="s">
         <v>15</v>
@@ -5562,7 +5462,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B441" t="s">
         <v>15</v>
@@ -5570,7 +5470,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B442" t="s">
         <v>15</v>
@@ -5578,7 +5478,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B443" t="s">
         <v>15</v>
@@ -5586,7 +5486,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B444" t="s">
         <v>15</v>
@@ -5594,7 +5494,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B445" t="s">
         <v>40</v>
@@ -5602,7 +5502,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B446" t="s">
         <v>40</v>
@@ -5610,7 +5510,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B447" t="s">
         <v>40</v>
@@ -5618,7 +5518,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B448" t="s">
         <v>40</v>
@@ -5626,7 +5526,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B449" t="s">
         <v>40</v>
@@ -5634,7 +5534,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B450" t="s">
         <v>40</v>
@@ -5642,7 +5542,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B451" t="s">
         <v>40</v>
@@ -5650,7 +5550,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B452" t="s">
         <v>40</v>
@@ -5658,7 +5558,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B453" t="s">
         <v>40</v>
@@ -5666,7 +5566,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B454" t="s">
         <v>40</v>
@@ -5674,7 +5574,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B455" t="s">
         <v>11</v>
@@ -5682,7 +5582,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B456" t="s">
         <v>69</v>
@@ -5690,7 +5590,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B457" t="s">
         <v>69</v>
@@ -5698,7 +5598,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B458" t="s">
         <v>3</v>
@@ -5706,7 +5606,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B459" t="s">
         <v>3</v>
@@ -5714,7 +5614,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B460" t="s">
         <v>69</v>
@@ -5722,7 +5622,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B461" t="s">
         <v>3</v>
@@ -5730,7 +5630,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B462" t="s">
         <v>69</v>
@@ -5738,7 +5638,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B463" t="s">
         <v>3</v>
@@ -5746,7 +5646,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B464" t="s">
         <v>11</v>
@@ -5754,7 +5654,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B465" t="s">
         <v>11</v>
@@ -5762,7 +5662,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B466" t="s">
         <v>11</v>
@@ -5770,7 +5670,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B467" t="s">
         <v>11</v>
@@ -5778,7 +5678,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B468" t="s">
         <v>11</v>
@@ -5786,7 +5686,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B469" t="s">
         <v>3</v>
@@ -5794,7 +5694,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B470" t="s">
         <v>27</v>
@@ -5802,7 +5702,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B471" t="s">
         <v>27</v>
@@ -5810,7 +5710,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B472" t="s">
         <v>27</v>
@@ -5818,7 +5718,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B473" t="s">
         <v>11</v>
@@ -5826,7 +5726,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B474" t="s">
         <v>69</v>
@@ -5834,23 +5734,15 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B475" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>481</v>
-      </c>
-      <c r="B476" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B477" t="s">
         <v>3</v>
@@ -5858,7 +5750,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B478" t="s">
         <v>3</v>
@@ -5866,7 +5758,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B479" t="s">
         <v>69</v>
@@ -5874,7 +5766,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B480" t="s">
         <v>11</v>
@@ -5882,7 +5774,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B481" t="s">
         <v>3</v>
@@ -5890,7 +5782,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B482" t="s">
         <v>11</v>
@@ -5898,7 +5790,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B483" t="s">
         <v>69</v>
@@ -5906,7 +5798,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B484" t="s">
         <v>69</v>
@@ -5914,7 +5806,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B485" t="s">
         <v>11</v>
@@ -5922,7 +5814,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B486" t="s">
         <v>69</v>
@@ -5930,7 +5822,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B487" t="s">
         <v>69</v>
@@ -5938,7 +5830,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B488" t="s">
         <v>27</v>
@@ -5946,7 +5838,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B489" t="s">
         <v>69</v>
@@ -5954,7 +5846,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B490" t="s">
         <v>11</v>
@@ -5962,7 +5854,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B491" t="s">
         <v>11</v>
@@ -5970,7 +5862,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B492" t="s">
         <v>13</v>
@@ -5978,23 +5870,15 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B493" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>499</v>
-      </c>
-      <c r="B494" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B495" t="s">
         <v>13</v>
@@ -6002,7 +5886,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B496" t="s">
         <v>13</v>
@@ -6010,7 +5894,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B497" t="s">
         <v>13</v>
@@ -6018,7 +5902,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B498" t="s">
         <v>13</v>
@@ -6026,7 +5910,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B499" t="s">
         <v>11</v>
@@ -6034,7 +5918,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B500" t="s">
         <v>13</v>
@@ -6042,7 +5926,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B501" t="s">
         <v>13</v>
@@ -6050,31 +5934,18 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B502" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>508</v>
-      </c>
-      <c r="B503" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B504" t="s">
-        <v>11</v>
-      </c>
+      <c r="A504" s="1"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B505" t="s">
         <v>69</v>
@@ -6082,7 +5953,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B506" t="s">
         <v>13</v>
@@ -6090,7 +5961,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B507" t="s">
         <v>13</v>
@@ -6098,7 +5969,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B508" t="s">
         <v>69</v>
@@ -6106,7 +5977,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B509" t="s">
         <v>25</v>
@@ -6114,7 +5985,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B510" t="s">
         <v>25</v>
@@ -6122,7 +5993,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B511" t="s">
         <v>25</v>
@@ -6130,7 +6001,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B512" t="s">
         <v>25</v>
@@ -6138,7 +6009,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B513" t="s">
         <v>25</v>
@@ -6146,7 +6017,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B514" t="s">
         <v>25</v>
@@ -6154,7 +6025,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B515" t="s">
         <v>25</v>
@@ -6162,7 +6033,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B516" t="s">
         <v>25</v>
@@ -6170,7 +6041,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B517" t="s">
         <v>25</v>
@@ -6178,7 +6049,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B518" t="s">
         <v>25</v>
@@ -6186,7 +6057,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B519" t="s">
         <v>25</v>
@@ -6194,7 +6065,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B520" t="s">
         <v>25</v>
@@ -6202,7 +6073,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B521" t="s">
         <v>25</v>
@@ -6210,7 +6081,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B522" t="s">
         <v>3</v>
@@ -6218,7 +6089,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B523" t="s">
         <v>69</v>
@@ -6243,9 +6114,8 @@
     <hyperlink ref="A26" r:id="rId15"/>
     <hyperlink ref="A12" r:id="rId16"/>
     <hyperlink ref="A88" r:id="rId17"/>
-    <hyperlink ref="A504" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="514">
   <si>
     <t>link</t>
   </si>
@@ -1190,9 +1190,6 @@
     <t>https://www.hakaimagazine.com/features/secret-history-bioluminescence/</t>
   </si>
   <si>
-    <t>https://michaelpollan.com/articles-archive/opium-made-easy/</t>
-  </si>
-  <si>
     <t>https://www.raspberrypi.org/forums/viewtopic.php?t=187871/</t>
   </si>
   <si>
@@ -1427,13 +1424,7 @@
     <t>https://www.sciencedaily.com/releases/2018/05/180518081910.htm</t>
   </si>
   <si>
-    <t>https://www.sciencedaily.com/releases/2018/05/180516162516.htm</t>
-  </si>
-  <si>
     <t>https://www.sciencedaily.com/releases/2018/05/180517143621.htm</t>
-  </si>
-  <si>
-    <t>https://www.sciencedaily.com/releases/2018/05/180517102236.htm</t>
   </si>
   <si>
     <t>https://www.livescience.com/62618-coldest-spot-in-the-universe.html</t>
@@ -1986,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F523"/>
+  <dimension ref="A1:F511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A504" sqref="A503:B504"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A395" sqref="A395:B511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4516,9 +4507,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>321</v>
+      </c>
+      <c r="B318" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B319" t="s">
         <v>27</v>
@@ -4526,7 +4525,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B320" t="s">
         <v>27</v>
@@ -4534,7 +4533,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B321" t="s">
         <v>27</v>
@@ -4542,15 +4541,15 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B323" t="s">
         <v>25</v>
@@ -4558,7 +4557,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B324" t="s">
         <v>25</v>
@@ -4566,7 +4565,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B325" t="s">
         <v>25</v>
@@ -4574,7 +4573,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B326" t="s">
         <v>25</v>
@@ -4582,7 +4581,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B327" t="s">
         <v>25</v>
@@ -4590,7 +4589,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B328" t="s">
         <v>25</v>
@@ -4598,7 +4597,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B329" t="s">
         <v>25</v>
@@ -4606,7 +4605,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B330" t="s">
         <v>25</v>
@@ -4614,7 +4613,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B331" t="s">
         <v>25</v>
@@ -4622,7 +4621,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B332" t="s">
         <v>25</v>
@@ -4630,7 +4629,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B333" t="s">
         <v>25</v>
@@ -4638,7 +4637,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B334" t="s">
         <v>25</v>
@@ -4646,7 +4645,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B335" t="s">
         <v>25</v>
@@ -4654,7 +4653,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B336" t="s">
         <v>25</v>
@@ -4662,7 +4661,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B337" t="s">
         <v>25</v>
@@ -4670,7 +4669,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B338" t="s">
         <v>25</v>
@@ -4678,39 +4677,39 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B339" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B343" t="s">
         <v>69</v>
@@ -4718,31 +4717,31 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="B345" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B346" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B347" t="s">
         <v>40</v>
@@ -4750,7 +4749,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="B348" t="s">
         <v>40</v>
@@ -4758,7 +4757,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B349" t="s">
         <v>40</v>
@@ -4766,55 +4765,55 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B356" t="s">
         <v>69</v>
@@ -4822,15 +4821,15 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B358" t="s">
         <v>15</v>
@@ -4838,7 +4837,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B359" t="s">
         <v>15</v>
@@ -4846,7 +4845,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B360" t="s">
         <v>15</v>
@@ -4854,7 +4853,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
@@ -4862,7 +4861,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B362" t="s">
         <v>15</v>
@@ -4870,7 +4869,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B363" t="s">
         <v>15</v>
@@ -4878,7 +4877,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B364" t="s">
         <v>15</v>
@@ -4886,7 +4885,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -4894,7 +4893,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B366" t="s">
         <v>15</v>
@@ -4902,7 +4901,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B367" t="s">
         <v>15</v>
@@ -4910,7 +4909,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B368" t="s">
         <v>15</v>
@@ -4918,7 +4917,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369" t="s">
         <v>15</v>
@@ -4926,7 +4925,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B370" t="s">
         <v>15</v>
@@ -4934,7 +4933,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B371" t="s">
         <v>15</v>
@@ -4942,7 +4941,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B372" t="s">
         <v>15</v>
@@ -4950,7 +4949,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B373" t="s">
         <v>15</v>
@@ -4958,7 +4957,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B374" t="s">
         <v>15</v>
@@ -4966,15 +4965,23 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B377" t="s">
         <v>13</v>
@@ -4982,15 +4989,15 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B379" t="s">
         <v>13</v>
@@ -4998,63 +5005,63 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>379</v>
+        <v>89</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B382" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B385" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B387" t="s">
         <v>13</v>
@@ -5062,15 +5069,15 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B389" t="s">
         <v>13</v>
@@ -5078,15 +5085,15 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B391" t="s">
         <v>13</v>
@@ -5094,7 +5101,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B392" t="s">
         <v>13</v>
@@ -5102,15 +5109,15 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B394" t="s">
         <v>13</v>
@@ -5118,7 +5125,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B395" t="s">
         <v>13</v>
@@ -5126,63 +5133,87 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B397" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>400</v>
+      </c>
+      <c r="B398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>401</v>
+      </c>
+      <c r="B399" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>404</v>
+      </c>
+      <c r="B402" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B406" t="s">
         <v>25</v>
@@ -5190,7 +5221,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B407" t="s">
         <v>25</v>
@@ -5198,7 +5229,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B408" t="s">
         <v>25</v>
@@ -5206,7 +5237,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B409" t="s">
         <v>25</v>
@@ -5214,7 +5245,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B410" t="s">
         <v>25</v>
@@ -5222,7 +5253,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B411" t="s">
         <v>25</v>
@@ -5230,7 +5261,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B412" t="s">
         <v>25</v>
@@ -5238,7 +5269,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B413" t="s">
         <v>25</v>
@@ -5246,7 +5277,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B414" t="s">
         <v>25</v>
@@ -5254,55 +5285,55 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B415" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B417" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B418" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B421" t="s">
         <v>242</v>
@@ -5310,15 +5341,15 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B422" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B423" t="s">
         <v>242</v>
@@ -5326,7 +5357,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B424" t="s">
         <v>242</v>
@@ -5334,7 +5365,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B425" t="s">
         <v>242</v>
@@ -5342,7 +5373,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B426" t="s">
         <v>242</v>
@@ -5350,7 +5381,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B427" t="s">
         <v>242</v>
@@ -5358,7 +5389,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B428" t="s">
         <v>11</v>
@@ -5366,7 +5397,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B429" t="s">
         <v>242</v>
@@ -5374,71 +5405,71 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B430" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B431" t="s">
-        <v>242</v>
+        <v>69</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B432" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B433" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B434" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B435" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B436" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B437" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B438" t="s">
         <v>15</v>
@@ -5446,55 +5477,55 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B439" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B440" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B441" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B442" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B443" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B444" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B445" t="s">
         <v>40</v>
@@ -5502,7 +5533,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B446" t="s">
         <v>40</v>
@@ -5510,7 +5541,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B447" t="s">
         <v>40</v>
@@ -5518,7 +5549,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B448" t="s">
         <v>40</v>
@@ -5526,63 +5557,63 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B449" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B450" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B451" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B452" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B453" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B454" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B455" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B456" t="s">
         <v>69</v>
@@ -5590,55 +5621,55 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B457" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B458" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B459" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B460" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B461" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B462" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B463" t="s">
         <v>3</v>
@@ -5646,15 +5677,15 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B464" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B465" t="s">
         <v>11</v>
@@ -5662,31 +5693,31 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B466" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B467" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B468" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B469" t="s">
         <v>3</v>
@@ -5694,31 +5725,31 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B470" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B471" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B472" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B473" t="s">
         <v>11</v>
@@ -5726,7 +5757,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B474" t="s">
         <v>69</v>
@@ -5734,55 +5765,63 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B475" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>478</v>
+      </c>
+      <c r="B476" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>473</v>
+      <c r="A477" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="B477" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>474</v>
+      <c r="A478" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="B478" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>475</v>
+      <c r="A479" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="B479" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B480" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B481" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B482" t="s">
         <v>11</v>
@@ -5790,95 +5829,103 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B483" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B484" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B485" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="3" t="s">
-        <v>482</v>
+      <c r="A486" t="s">
+        <v>488</v>
       </c>
       <c r="B486" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="3" t="s">
-        <v>483</v>
+      <c r="A487" t="s">
+        <v>489</v>
       </c>
       <c r="B487" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="3" t="s">
-        <v>484</v>
+      <c r="A488" t="s">
+        <v>490</v>
       </c>
       <c r="B488" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B489" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B490" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B491" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B492" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B493" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>496</v>
+      </c>
+      <c r="B494" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>490</v>
+      <c r="A495" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="B495" t="s">
         <v>13</v>
@@ -5886,98 +5933,111 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B496" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B497" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B498" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B499" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B500" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B501" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B502" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>505</v>
+      </c>
+      <c r="B503" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="1"/>
+      <c r="A504" t="s">
+        <v>506</v>
+      </c>
+      <c r="B504" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B505" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B506" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="4" t="s">
-        <v>500</v>
+      <c r="A507" t="s">
+        <v>509</v>
       </c>
       <c r="B507" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B508" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B509" t="s">
         <v>25</v>
@@ -5985,113 +6045,17 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B510" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B511" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>505</v>
-      </c>
-      <c r="B512" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>507</v>
-      </c>
-      <c r="B513" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>506</v>
-      </c>
-      <c r="B514" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>508</v>
-      </c>
-      <c r="B515" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>509</v>
-      </c>
-      <c r="B516" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>510</v>
-      </c>
-      <c r="B517" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>511</v>
-      </c>
-      <c r="B518" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>512</v>
-      </c>
-      <c r="B519" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>513</v>
-      </c>
-      <c r="B520" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>514</v>
-      </c>
-      <c r="B521" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
-        <v>515</v>
-      </c>
-      <c r="B522" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>516</v>
-      </c>
-      <c r="B523" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="515">
   <si>
     <t>link</t>
   </si>
@@ -1616,6 +1616,9 @@
   </si>
   <si>
     <t>https://www.theguardian.com/science/2018/may/30/speculative-biology-understanding-the-past-and-predicting-our-future</t>
+  </si>
+  <si>
+    <t>https://likegeeks.com/python-gui-examples-tkinter-tutorial/</t>
   </si>
 </sst>
 </file>
@@ -1977,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F511"/>
+  <dimension ref="A1:F512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A395" sqref="A395:B511"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6057,6 +6060,14 @@
       </c>
       <c r="B511" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>514</v>
+      </c>
+      <c r="B512" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
